--- a/backend/output_timetables/sem5_CSE_timetable_baskets.xlsx
+++ b/backend/output_timetables/sem5_CSE_timetable_baskets.xlsx
@@ -9,6 +9,10 @@
   <sheets>
     <sheet name="Section_A" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="Section_B" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Basket_Allocation" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Course_Summary" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Basket_Courses" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="Common_Slots_Info" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -469,27 +473,27 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Basket: ELECTIVE_B5</t>
+          <t>ELECTIVE_B5</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Basket: HSS_B5</t>
+          <t>CS304</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>CS304</t>
+          <t>ELECTIVE_B5</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>CS303</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>HS101</t>
         </is>
       </c>
     </row>
@@ -501,22 +505,22 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
           <t>CS309</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="D3" t="inlineStr">
         <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>Free</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>HS101</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -565,7 +569,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Basket: ELECTIVE_B5</t>
+          <t>ELECTIVE_B3</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -575,12 +579,12 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>HS101</t>
+          <t>ELECTIVE_B3</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>CS309</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -597,27 +601,27 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Basket: ELECTIVE_B5 (Tutorial)</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>ELECTIVE_B3 (Tutorial)</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>HS101 (Tutorial)</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>CS309 (Tutorial)</t>
+          <t>CS304 (Tutorial)</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>CS303 (Tutorial)</t>
+          <t>ELECTIVE_B5 (Tutorial)</t>
         </is>
       </c>
     </row>
@@ -629,27 +633,27 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Basket: HSS_B5</t>
+          <t>HS101</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>CS303</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
           <t>CS304</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>CS304</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>CS303</t>
         </is>
       </c>
     </row>
@@ -661,7 +665,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Basket: HSS_B5 (Tutorial)</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -671,17 +675,17 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
+          <t>CS309 (Tutorial)</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>CS304 (Tutorial)</t>
-        </is>
-      </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>CS303 (Tutorial)</t>
         </is>
       </c>
     </row>
@@ -739,27 +743,27 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Basket: ELECTIVE_B5</t>
+          <t>ELECTIVE_B5</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Basket: HSS_B5</t>
+          <t>HS101</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>CS304</t>
-        </is>
-      </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>CS309</t>
+          <t>HS101</t>
         </is>
       </c>
     </row>
@@ -771,27 +775,27 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
           <t>CS309</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>CS309</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>CS303</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>CS304</t>
         </is>
       </c>
     </row>
@@ -835,27 +839,27 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Basket: ELECTIVE_B5</t>
+          <t>ELECTIVE_B3</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>HS101</t>
+          <t>CS303</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>HS101</t>
+          <t>ELECTIVE_B3</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>CS303</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
           <t>Free</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>CS303</t>
         </is>
       </c>
     </row>
@@ -867,27 +871,27 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Basket: ELECTIVE_B5 (Tutorial)</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
+          <t>ELECTIVE_B3 (Tutorial)</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>CS303 (Tutorial)</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>CS304 (Tutorial)</t>
+          <t>ELECTIVE_B5 (Tutorial)</t>
         </is>
       </c>
     </row>
@@ -899,27 +903,27 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Basket: HSS_B5</t>
+          <t>CS304</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>CS309</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
           <t>CS304</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>CS303</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Free</t>
         </is>
       </c>
     </row>
@@ -931,27 +935,3018 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Basket: HSS_B5 (Tutorial)</t>
+          <t>CS309 (Tutorial)</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>CS303 (Tutorial)</t>
+          <t>CS304 (Tutorial)</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
+          <t>HS101 (Tutorial)</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>Free</t>
         </is>
       </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Basket Name</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Lecture Slot 1</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Lecture Slot 2</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Tutorial Slot</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Courses in Basket</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Common for All Branches</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Common for Both Sections</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Days Separation</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Semester</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Applicable Branches</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Slot Type</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Mon 13:00-14:30</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Wed 13:00-14:30</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Tue 14:30-15:30</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>CS463, CS308, DS301, EC368, CS366, DS359, EC355, CS352, DE351, EC358</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>✅ YES</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>✅ YES</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>✅ YES</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>Semester 5</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>CSE, DSAI, ECE (ALL)</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>FIXED COMMON SLOTS</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Mon 09:00-10:30</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Wed 09:00-10:30</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Fri 14:30-15:30</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>CS463, CS308, DS301, CS366, DS359, EC355, EC364, CS352, ASD352, EC365, CS463, CS308, DS301, CS366, DS359, EC355, EC364, CS352, ASD352, EC365</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>✅ YES</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>✅ YES</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>✅ YES</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>Semester 5</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>CSE, DSAI, ECE (ALL)</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>FIXED COMMON SLOTS</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I35"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Course Code</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Course Name</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Course Type</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Branch Specificity</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>LTPSC</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Lectures/Week</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Tutorials/Week</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Total Credits</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Department</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>CS309</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Statistics for CS</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Core</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Department: CSE</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>3-1-0-0-4</t>
+        </is>
+      </c>
+      <c r="F2" t="n">
+        <v>3</v>
+      </c>
+      <c r="G2" t="n">
+        <v>1</v>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>CS303</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Computer Networks</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Core</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Department: CSE</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>3-1-2-0-5</t>
+        </is>
+      </c>
+      <c r="F3" t="n">
+        <v>3</v>
+      </c>
+      <c r="G3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>CS304</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Artificial Intelligence</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Core</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Department: CSE</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>3-1-0-0-4</t>
+        </is>
+      </c>
+      <c r="F4" t="n">
+        <v>3</v>
+      </c>
+      <c r="G4" t="n">
+        <v>1</v>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>HS101</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Environmental Studies</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Core</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Department: CSE</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>2-0-0-0-2</t>
+        </is>
+      </c>
+      <c r="F5" t="n">
+        <v>2</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>CS463</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Parallel computing</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Elective</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Common for All Branches</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>3-1-0-0-4</t>
+        </is>
+      </c>
+      <c r="F6" t="n">
+        <v>3</v>
+      </c>
+      <c r="G6" t="n">
+        <v>1</v>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>CS308</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Compiler Design</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Elective</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Common for All Branches</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>3-1-0-0-4</t>
+        </is>
+      </c>
+      <c r="F7" t="n">
+        <v>3</v>
+      </c>
+      <c r="G7" t="n">
+        <v>1</v>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>DS301</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Graphs and Social Networks</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Elective</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Common for All Branches</t>
+        </is>
+      </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>CS309 (Tutorial)</t>
-        </is>
+          <t>3-1-0-0-4</t>
+        </is>
+      </c>
+      <c r="F8" t="n">
+        <v>3</v>
+      </c>
+      <c r="G8" t="n">
+        <v>1</v>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>CS366</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Advanced Algorithms</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Elective</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Common for All Branches</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>3-1-0-0-4</t>
+        </is>
+      </c>
+      <c r="F9" t="n">
+        <v>3</v>
+      </c>
+      <c r="G9" t="n">
+        <v>1</v>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>DS359</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Full Stack Development</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Elective</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Common for All Branches</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>3-1-0-0-4</t>
+        </is>
+      </c>
+      <c r="F10" t="n">
+        <v>3</v>
+      </c>
+      <c r="G10" t="n">
+        <v>1</v>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>EC355</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Internet of Things</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Elective</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Common for All Branches</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>3-1-0-0-4</t>
+        </is>
+      </c>
+      <c r="F11" t="n">
+        <v>3</v>
+      </c>
+      <c r="G11" t="n">
+        <v>1</v>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>EC364</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Semiconductor Devices</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Elective</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Common for All Branches</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>3-1-0-0-4</t>
+        </is>
+      </c>
+      <c r="F12" t="n">
+        <v>3</v>
+      </c>
+      <c r="G12" t="n">
+        <v>1</v>
+      </c>
+      <c r="H12" t="n">
+        <v>4</v>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>CS352</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Cryptography &amp; Security</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Elective</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Common for All Branches</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>3-1-0-0-4</t>
+        </is>
+      </c>
+      <c r="F13" t="n">
+        <v>3</v>
+      </c>
+      <c r="G13" t="n">
+        <v>1</v>
+      </c>
+      <c r="H13" t="n">
+        <v>4</v>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>ASD352</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>User Interaction</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Elective</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Common for All Branches</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>3-1-0-0-4</t>
+        </is>
+      </c>
+      <c r="F14" t="n">
+        <v>3</v>
+      </c>
+      <c r="G14" t="n">
+        <v>1</v>
+      </c>
+      <c r="H14" t="n">
+        <v>4</v>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>EC365</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>AI in Biomedical Engineering</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Elective</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Common for All Branches</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>3-1-0-0-4</t>
+        </is>
+      </c>
+      <c r="F15" t="n">
+        <v>3</v>
+      </c>
+      <c r="G15" t="n">
+        <v>1</v>
+      </c>
+      <c r="H15" t="n">
+        <v>4</v>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>CS463</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Parallel computing</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Elective</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Common for All Branches</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>3-1-0-0-4</t>
+        </is>
+      </c>
+      <c r="F16" t="n">
+        <v>3</v>
+      </c>
+      <c r="G16" t="n">
+        <v>1</v>
+      </c>
+      <c r="H16" t="n">
+        <v>4</v>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>CS308</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Compiler Design</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Elective</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Common for All Branches</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>3-1-0-0-4</t>
+        </is>
+      </c>
+      <c r="F17" t="n">
+        <v>3</v>
+      </c>
+      <c r="G17" t="n">
+        <v>1</v>
+      </c>
+      <c r="H17" t="n">
+        <v>4</v>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>DS301</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Graphs and Social Networks</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Elective</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Common for All Branches</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>3-1-0-0-4</t>
+        </is>
+      </c>
+      <c r="F18" t="n">
+        <v>3</v>
+      </c>
+      <c r="G18" t="n">
+        <v>1</v>
+      </c>
+      <c r="H18" t="n">
+        <v>4</v>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>CS366</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Advanced Algorithms</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Elective</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Common for All Branches</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>3-1-0-0-4</t>
+        </is>
+      </c>
+      <c r="F19" t="n">
+        <v>3</v>
+      </c>
+      <c r="G19" t="n">
+        <v>1</v>
+      </c>
+      <c r="H19" t="n">
+        <v>4</v>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>DS359</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Full Stack Development</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Elective</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Common for All Branches</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>3-1-0-0-4</t>
+        </is>
+      </c>
+      <c r="F20" t="n">
+        <v>3</v>
+      </c>
+      <c r="G20" t="n">
+        <v>1</v>
+      </c>
+      <c r="H20" t="n">
+        <v>4</v>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>EC355</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Internet of Things</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Elective</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Common for All Branches</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>3-1-0-0-4</t>
+        </is>
+      </c>
+      <c r="F21" t="n">
+        <v>3</v>
+      </c>
+      <c r="G21" t="n">
+        <v>1</v>
+      </c>
+      <c r="H21" t="n">
+        <v>4</v>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>EC364</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Semiconductor Devices</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Elective</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Common for All Branches</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>3-1-0-0-4</t>
+        </is>
+      </c>
+      <c r="F22" t="n">
+        <v>3</v>
+      </c>
+      <c r="G22" t="n">
+        <v>1</v>
+      </c>
+      <c r="H22" t="n">
+        <v>4</v>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>CS352</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Cryptography &amp; Security</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Elective</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Common for All Branches</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>3-1-0-0-4</t>
+        </is>
+      </c>
+      <c r="F23" t="n">
+        <v>3</v>
+      </c>
+      <c r="G23" t="n">
+        <v>1</v>
+      </c>
+      <c r="H23" t="n">
+        <v>4</v>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>ASD352</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>User Interaction</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Elective</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Common for All Branches</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>3-1-0-0-4</t>
+        </is>
+      </c>
+      <c r="F24" t="n">
+        <v>3</v>
+      </c>
+      <c r="G24" t="n">
+        <v>1</v>
+      </c>
+      <c r="H24" t="n">
+        <v>4</v>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>EC365</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>AI in Biomedical Engineering</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Elective</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>Common for All Branches</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>3-1-0-0-4</t>
+        </is>
+      </c>
+      <c r="F25" t="n">
+        <v>3</v>
+      </c>
+      <c r="G25" t="n">
+        <v>1</v>
+      </c>
+      <c r="H25" t="n">
+        <v>4</v>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>CS463</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Parallel computing</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Elective</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>Common for All Branches</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>3-1-0-0-4</t>
+        </is>
+      </c>
+      <c r="F26" t="n">
+        <v>3</v>
+      </c>
+      <c r="G26" t="n">
+        <v>1</v>
+      </c>
+      <c r="H26" t="n">
+        <v>4</v>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>CS308</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Compiler Design</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Elective</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>Common for All Branches</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>3-1-0-0-4</t>
+        </is>
+      </c>
+      <c r="F27" t="n">
+        <v>3</v>
+      </c>
+      <c r="G27" t="n">
+        <v>1</v>
+      </c>
+      <c r="H27" t="n">
+        <v>4</v>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>DS301</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Graphs and Social Network</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Elective</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>Common for All Branches</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>3-1-0-0-4</t>
+        </is>
+      </c>
+      <c r="F28" t="n">
+        <v>3</v>
+      </c>
+      <c r="G28" t="n">
+        <v>1</v>
+      </c>
+      <c r="H28" t="n">
+        <v>4</v>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>EC368</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Semiconductor Device Modeling</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Elective</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>Common for All Branches</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>3-1-0-0-4</t>
+        </is>
+      </c>
+      <c r="F29" t="n">
+        <v>3</v>
+      </c>
+      <c r="G29" t="n">
+        <v>1</v>
+      </c>
+      <c r="H29" t="n">
+        <v>4</v>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>CS366</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Advanced Algorithm Design</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Elective</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>Common for All Branches</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>3-1-0-0-4</t>
+        </is>
+      </c>
+      <c r="F30" t="n">
+        <v>3</v>
+      </c>
+      <c r="G30" t="n">
+        <v>1</v>
+      </c>
+      <c r="H30" t="n">
+        <v>4</v>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>DS359</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Full Stack Development</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Elective</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>Common for All Branches</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>3-1-0-0-4</t>
+        </is>
+      </c>
+      <c r="F31" t="n">
+        <v>3</v>
+      </c>
+      <c r="G31" t="n">
+        <v>1</v>
+      </c>
+      <c r="H31" t="n">
+        <v>4</v>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>EC355</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Internet of Things</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Elective</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>Common for All Branches</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>3-1-0-0-4</t>
+        </is>
+      </c>
+      <c r="F32" t="n">
+        <v>3</v>
+      </c>
+      <c r="G32" t="n">
+        <v>1</v>
+      </c>
+      <c r="H32" t="n">
+        <v>4</v>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>CS352</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Cryptography &amp; Information Security</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>Elective</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>Common for All Branches</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>3-1-0-0-4</t>
+        </is>
+      </c>
+      <c r="F33" t="n">
+        <v>3</v>
+      </c>
+      <c r="G33" t="n">
+        <v>1</v>
+      </c>
+      <c r="H33" t="n">
+        <v>4</v>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>DE351</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>User Interactions and Experience Design</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>Elective</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>Common for All Branches</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>3-1-0-0-4</t>
+        </is>
+      </c>
+      <c r="F34" t="n">
+        <v>3</v>
+      </c>
+      <c r="G34" t="n">
+        <v>1</v>
+      </c>
+      <c r="H34" t="n">
+        <v>4</v>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>EC358</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>AI in Biomedical Signal Interpretation</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>Elective</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>Common for All Branches</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>3-1-0-0-4</t>
+        </is>
+      </c>
+      <c r="F35" t="n">
+        <v>3</v>
+      </c>
+      <c r="G35" t="n">
+        <v>1</v>
+      </c>
+      <c r="H35" t="n">
+        <v>4</v>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Basket Name</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Course Code</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Lecture Slots</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Tutorial Slot</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Total Courses in Basket</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Common for All Branches</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Common for Both Sections</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>CS463</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Mon 13:00-14:30, Wed 13:00-14:30</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Tue 14:30-15:30</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
+        <v>10</v>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>CS308</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Mon 13:00-14:30, Wed 13:00-14:30</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Tue 14:30-15:30</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>10</v>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>DS301</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Mon 13:00-14:30, Wed 13:00-14:30</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Tue 14:30-15:30</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>10</v>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>EC368</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Mon 13:00-14:30, Wed 13:00-14:30</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Tue 14:30-15:30</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>10</v>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>CS366</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Mon 13:00-14:30, Wed 13:00-14:30</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Tue 14:30-15:30</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>10</v>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>DS359</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Mon 13:00-14:30, Wed 13:00-14:30</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Tue 14:30-15:30</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>10</v>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>EC355</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Mon 13:00-14:30, Wed 13:00-14:30</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Tue 14:30-15:30</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>10</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>CS352</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Mon 13:00-14:30, Wed 13:00-14:30</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Tue 14:30-15:30</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>10</v>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>DE351</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Mon 13:00-14:30, Wed 13:00-14:30</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Tue 14:30-15:30</t>
+        </is>
+      </c>
+      <c r="E10" t="n">
+        <v>10</v>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>EC358</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Mon 13:00-14:30, Wed 13:00-14:30</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Tue 14:30-15:30</t>
+        </is>
+      </c>
+      <c r="E11" t="n">
+        <v>10</v>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>CS463</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Mon 09:00-10:30, Wed 09:00-10:30</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Fri 14:30-15:30</t>
+        </is>
+      </c>
+      <c r="E12" t="n">
+        <v>20</v>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>CS308</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Mon 09:00-10:30, Wed 09:00-10:30</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Fri 14:30-15:30</t>
+        </is>
+      </c>
+      <c r="E13" t="n">
+        <v>20</v>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>DS301</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Mon 09:00-10:30, Wed 09:00-10:30</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Fri 14:30-15:30</t>
+        </is>
+      </c>
+      <c r="E14" t="n">
+        <v>20</v>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>CS366</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Mon 09:00-10:30, Wed 09:00-10:30</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Fri 14:30-15:30</t>
+        </is>
+      </c>
+      <c r="E15" t="n">
+        <v>20</v>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>DS359</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Mon 09:00-10:30, Wed 09:00-10:30</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Fri 14:30-15:30</t>
+        </is>
+      </c>
+      <c r="E16" t="n">
+        <v>20</v>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>EC355</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Mon 09:00-10:30, Wed 09:00-10:30</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Fri 14:30-15:30</t>
+        </is>
+      </c>
+      <c r="E17" t="n">
+        <v>20</v>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>EC364</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Mon 09:00-10:30, Wed 09:00-10:30</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Fri 14:30-15:30</t>
+        </is>
+      </c>
+      <c r="E18" t="n">
+        <v>20</v>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>CS352</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Mon 09:00-10:30, Wed 09:00-10:30</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Fri 14:30-15:30</t>
+        </is>
+      </c>
+      <c r="E19" t="n">
+        <v>20</v>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>ASD352</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Mon 09:00-10:30, Wed 09:00-10:30</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Fri 14:30-15:30</t>
+        </is>
+      </c>
+      <c r="E20" t="n">
+        <v>20</v>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>EC365</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Mon 09:00-10:30, Wed 09:00-10:30</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Fri 14:30-15:30</t>
+        </is>
+      </c>
+      <c r="E21" t="n">
+        <v>20</v>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>CS463</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Mon 09:00-10:30, Wed 09:00-10:30</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Fri 14:30-15:30</t>
+        </is>
+      </c>
+      <c r="E22" t="n">
+        <v>20</v>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>CS308</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Mon 09:00-10:30, Wed 09:00-10:30</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Fri 14:30-15:30</t>
+        </is>
+      </c>
+      <c r="E23" t="n">
+        <v>20</v>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>DS301</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Mon 09:00-10:30, Wed 09:00-10:30</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Fri 14:30-15:30</t>
+        </is>
+      </c>
+      <c r="E24" t="n">
+        <v>20</v>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>CS366</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Mon 09:00-10:30, Wed 09:00-10:30</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>Fri 14:30-15:30</t>
+        </is>
+      </c>
+      <c r="E25" t="n">
+        <v>20</v>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>DS359</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Mon 09:00-10:30, Wed 09:00-10:30</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>Fri 14:30-15:30</t>
+        </is>
+      </c>
+      <c r="E26" t="n">
+        <v>20</v>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>EC355</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Mon 09:00-10:30, Wed 09:00-10:30</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>Fri 14:30-15:30</t>
+        </is>
+      </c>
+      <c r="E27" t="n">
+        <v>20</v>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>EC364</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Mon 09:00-10:30, Wed 09:00-10:30</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>Fri 14:30-15:30</t>
+        </is>
+      </c>
+      <c r="E28" t="n">
+        <v>20</v>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>CS352</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Mon 09:00-10:30, Wed 09:00-10:30</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>Fri 14:30-15:30</t>
+        </is>
+      </c>
+      <c r="E29" t="n">
+        <v>20</v>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>ASD352</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Mon 09:00-10:30, Wed 09:00-10:30</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>Fri 14:30-15:30</t>
+        </is>
+      </c>
+      <c r="E30" t="n">
+        <v>20</v>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>EC365</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Mon 09:00-10:30, Wed 09:00-10:30</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>Fri 14:30-15:30</t>
+        </is>
+      </c>
+      <c r="E31" t="n">
+        <v>20</v>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Semester</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Basket Name</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Lecture 1 Day</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Lecture 1 Time</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Lecture 2 Day</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Lecture 2 Time</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Tutorial Day</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Tutorial Time</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Courses</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Common for Branches</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Common for Sections</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Days Separation</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>Slot Consistency</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Notes</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Semester 5</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>13:00-14:30</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>13:00-14:30</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>14:30-15:30</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>CS463, CS308, DS301, EC368, CS366, DS359, EC355, CS352, DE351, EC358</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>CSE, DSAI, ECE (ALL)</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>A &amp; B (BOTH)</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>✅ Achieved</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>✅ IDENTICAL across all</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>FIXED COMMON TIMETABLE SLOTS</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Semester 5</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>09:00-10:30</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>09:00-10:30</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Fri</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>14:30-15:30</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>CS463, CS308, DS301, CS366, DS359, EC355, EC364, CS352, ASD352, EC365, CS463, CS308, DS301, CS366, DS359, EC355, EC364, CS352, ASD352, EC365</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>CSE, DSAI, ECE (ALL)</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>A &amp; B (BOTH)</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>✅ Achieved</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>✅ IDENTICAL across all</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>FIXED COMMON TIMETABLE SLOTS</t>
         </is>
       </c>
     </row>

--- a/backend/output_timetables/sem5_CSE_timetable_baskets.xlsx
+++ b/backend/output_timetables/sem5_CSE_timetable_baskets.xlsx
@@ -13,6 +13,8 @@
     <sheet name="Course_Summary" sheetId="4" state="visible" r:id="rId4"/>
     <sheet name="Basket_Courses" sheetId="5" state="visible" r:id="rId5"/>
     <sheet name="Common_Slots_Info" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="Semester_Rules" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="Classroom_Utilization" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -473,17 +475,17 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>ELECTIVE_B5</t>
+          <t>CS309 [C405]</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>CS304</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>ELECTIVE_B5</t>
+          <t>CS303 [C405]</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -493,7 +495,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>HS101</t>
+          <t>Free</t>
         </is>
       </c>
     </row>
@@ -510,22 +512,22 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>CS309</t>
+          <t>CS304 [C405]</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>CS309 [C405]</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>HS101 [C405]</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
           <t>Free</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>CS309</t>
         </is>
       </c>
     </row>
@@ -569,17 +571,17 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ELECTIVE_B3</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>CS303</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>ELECTIVE_B3</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -589,7 +591,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>CS304 [C405]</t>
         </is>
       </c>
     </row>
@@ -606,22 +608,22 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>ELECTIVE_B3 (Tutorial)</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>HS101 (Tutorial)</t>
+          <t>HS101 (Tutorial) [C405]</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>CS304 (Tutorial)</t>
+          <t>ELECTIVE_B5 (Tutorial) [C405]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>ELECTIVE_B5 (Tutorial)</t>
+          <t>CS309 (Tutorial) [C405]</t>
         </is>
       </c>
     </row>
@@ -633,7 +635,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>HS101</t>
+          <t>ELECTIVE_B5 [C405]</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -643,17 +645,17 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>ELECTIVE_B5 [C405]</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>CS303</t>
+          <t>CS303 [C405]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>CS304</t>
+          <t>HS101 [C405]</t>
         </is>
       </c>
     </row>
@@ -675,7 +677,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>CS309 (Tutorial)</t>
+          <t>CS304 (Tutorial) [C405]</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -685,7 +687,7 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>CS303 (Tutorial)</t>
+          <t>CS303 (Tutorial) [C405]</t>
         </is>
       </c>
     </row>
@@ -743,27 +745,27 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>ELECTIVE_B5</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>HS101</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>ELECTIVE_B5</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
+          <t>CS309 [C405]</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
           <t>Free</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>HS101</t>
         </is>
       </c>
     </row>
@@ -775,27 +777,27 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>CS304 [C405]</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>CS303 [C405]</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
         <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>CS309</t>
+          <t>CS303 [C405]</t>
         </is>
       </c>
     </row>
@@ -839,27 +841,27 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ELECTIVE_B3</t>
+          <t>HS101 [C405]</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>CS303</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>ELECTIVE_B3</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>CS303</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>CS309 [C405]</t>
         </is>
       </c>
     </row>
@@ -876,22 +878,22 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>ELECTIVE_B3 (Tutorial)</t>
+          <t>CS309 (Tutorial) [C405]</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>CS303 (Tutorial)</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>ELECTIVE_B5 (Tutorial) [C405]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>ELECTIVE_B5 (Tutorial)</t>
+          <t>HS101 (Tutorial) [C405]</t>
         </is>
       </c>
     </row>
@@ -903,7 +905,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>CS304</t>
+          <t>ELECTIVE_B5 [C405]</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -913,17 +915,17 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>CS309</t>
+          <t>ELECTIVE_B5 [C405]</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>HS101 [C405]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>CS304</t>
+          <t>CS304 [C405]</t>
         </is>
       </c>
     </row>
@@ -935,22 +937,22 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>CS309 (Tutorial)</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>CS304 (Tutorial)</t>
+          <t>CS303 (Tutorial) [C405]</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>HS101 (Tutorial)</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>CS304 (Tutorial) [C405]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -970,7 +972,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K3"/>
+  <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1038,27 +1040,27 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>ELECTIVE_B3</t>
+          <t>ELECTIVE_B5</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Mon 13:00-14:30</t>
+          <t>Mon 15:30-17:00</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Wed 13:00-14:30</t>
+          <t>Wed 15:30-17:00</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Tue 14:30-15:30</t>
+          <t>Thu 14:30-15:30</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>CS463, CS308, DS301, EC368, CS366, DS359, EC355, CS352, DE351, EC358</t>
+          <t>CS463, CS308, DS301, CS366, DS359, EC355, EC364, CS352, ASD352, EC365, CS463, CS308, DS301, CS366, DS359, EC355, EC364, CS352, ASD352, EC365</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -1087,63 +1089,6 @@
         </is>
       </c>
       <c r="K2" t="inlineStr">
-        <is>
-          <t>FIXED COMMON SLOTS</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B5</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Mon 09:00-10:30</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Wed 09:00-10:30</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>Fri 14:30-15:30</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>CS463, CS308, DS301, CS366, DS359, EC355, EC364, CS352, ASD352, EC365, CS463, CS308, DS301, CS366, DS359, EC355, EC364, CS352, ASD352, EC365</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>✅ YES</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>✅ YES</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>✅ YES</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>Semester 5</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>CSE, DSAI, ECE (ALL)</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
         <is>
           <t>FIXED COMMON SLOTS</t>
         </is>
@@ -2620,7 +2565,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G31"/>
+  <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2668,7 +2613,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>ELECTIVE_B3</t>
+          <t>ELECTIVE_B5</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -2678,16 +2623,16 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Mon 13:00-14:30, Wed 13:00-14:30</t>
+          <t>Mon 15:30-17:00, Wed 15:30-17:00</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Tue 14:30-15:30</t>
+          <t>Thu 14:30-15:30</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
@@ -2703,7 +2648,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>ELECTIVE_B3</t>
+          <t>ELECTIVE_B5</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -2713,16 +2658,16 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Mon 13:00-14:30, Wed 13:00-14:30</t>
+          <t>Mon 15:30-17:00, Wed 15:30-17:00</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Tue 14:30-15:30</t>
+          <t>Thu 14:30-15:30</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
@@ -2738,7 +2683,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>ELECTIVE_B3</t>
+          <t>ELECTIVE_B5</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -2748,16 +2693,16 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Mon 13:00-14:30, Wed 13:00-14:30</t>
+          <t>Mon 15:30-17:00, Wed 15:30-17:00</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Tue 14:30-15:30</t>
+          <t>Thu 14:30-15:30</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
@@ -2773,26 +2718,26 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>ELECTIVE_B3</t>
+          <t>ELECTIVE_B5</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>EC368</t>
+          <t>CS366</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Mon 13:00-14:30, Wed 13:00-14:30</t>
+          <t>Mon 15:30-17:00, Wed 15:30-17:00</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Tue 14:30-15:30</t>
+          <t>Thu 14:30-15:30</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
@@ -2808,26 +2753,26 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>ELECTIVE_B3</t>
+          <t>ELECTIVE_B5</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>CS366</t>
+          <t>DS359</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Mon 13:00-14:30, Wed 13:00-14:30</t>
+          <t>Mon 15:30-17:00, Wed 15:30-17:00</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Tue 14:30-15:30</t>
+          <t>Thu 14:30-15:30</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
@@ -2843,26 +2788,26 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>ELECTIVE_B3</t>
+          <t>ELECTIVE_B5</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>DS359</t>
+          <t>EC355</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Mon 13:00-14:30, Wed 13:00-14:30</t>
+          <t>Mon 15:30-17:00, Wed 15:30-17:00</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Tue 14:30-15:30</t>
+          <t>Thu 14:30-15:30</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
@@ -2878,26 +2823,26 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>ELECTIVE_B3</t>
+          <t>ELECTIVE_B5</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>EC355</t>
+          <t>EC364</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Mon 13:00-14:30, Wed 13:00-14:30</t>
+          <t>Mon 15:30-17:00, Wed 15:30-17:00</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Tue 14:30-15:30</t>
+          <t>Thu 14:30-15:30</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
@@ -2913,7 +2858,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>ELECTIVE_B3</t>
+          <t>ELECTIVE_B5</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -2923,16 +2868,16 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Mon 13:00-14:30, Wed 13:00-14:30</t>
+          <t>Mon 15:30-17:00, Wed 15:30-17:00</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Tue 14:30-15:30</t>
+          <t>Thu 14:30-15:30</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
@@ -2948,26 +2893,26 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>ELECTIVE_B3</t>
+          <t>ELECTIVE_B5</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>DE351</t>
+          <t>ASD352</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Mon 13:00-14:30, Wed 13:00-14:30</t>
+          <t>Mon 15:30-17:00, Wed 15:30-17:00</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Tue 14:30-15:30</t>
+          <t>Thu 14:30-15:30</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
@@ -2983,26 +2928,26 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>ELECTIVE_B3</t>
+          <t>ELECTIVE_B5</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>EC358</t>
+          <t>EC365</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Mon 13:00-14:30, Wed 13:00-14:30</t>
+          <t>Mon 15:30-17:00, Wed 15:30-17:00</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Tue 14:30-15:30</t>
+          <t>Thu 14:30-15:30</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
@@ -3028,12 +2973,12 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30, Wed 09:00-10:30</t>
+          <t>Mon 15:30-17:00, Wed 15:30-17:00</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Fri 14:30-15:30</t>
+          <t>Thu 14:30-15:30</t>
         </is>
       </c>
       <c r="E12" t="n">
@@ -3063,12 +3008,12 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30, Wed 09:00-10:30</t>
+          <t>Mon 15:30-17:00, Wed 15:30-17:00</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Fri 14:30-15:30</t>
+          <t>Thu 14:30-15:30</t>
         </is>
       </c>
       <c r="E13" t="n">
@@ -3098,12 +3043,12 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30, Wed 09:00-10:30</t>
+          <t>Mon 15:30-17:00, Wed 15:30-17:00</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Fri 14:30-15:30</t>
+          <t>Thu 14:30-15:30</t>
         </is>
       </c>
       <c r="E14" t="n">
@@ -3133,12 +3078,12 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30, Wed 09:00-10:30</t>
+          <t>Mon 15:30-17:00, Wed 15:30-17:00</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Fri 14:30-15:30</t>
+          <t>Thu 14:30-15:30</t>
         </is>
       </c>
       <c r="E15" t="n">
@@ -3168,12 +3113,12 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30, Wed 09:00-10:30</t>
+          <t>Mon 15:30-17:00, Wed 15:30-17:00</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Fri 14:30-15:30</t>
+          <t>Thu 14:30-15:30</t>
         </is>
       </c>
       <c r="E16" t="n">
@@ -3203,12 +3148,12 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30, Wed 09:00-10:30</t>
+          <t>Mon 15:30-17:00, Wed 15:30-17:00</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Fri 14:30-15:30</t>
+          <t>Thu 14:30-15:30</t>
         </is>
       </c>
       <c r="E17" t="n">
@@ -3238,12 +3183,12 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30, Wed 09:00-10:30</t>
+          <t>Mon 15:30-17:00, Wed 15:30-17:00</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Fri 14:30-15:30</t>
+          <t>Thu 14:30-15:30</t>
         </is>
       </c>
       <c r="E18" t="n">
@@ -3273,12 +3218,12 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30, Wed 09:00-10:30</t>
+          <t>Mon 15:30-17:00, Wed 15:30-17:00</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Fri 14:30-15:30</t>
+          <t>Thu 14:30-15:30</t>
         </is>
       </c>
       <c r="E19" t="n">
@@ -3308,12 +3253,12 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30, Wed 09:00-10:30</t>
+          <t>Mon 15:30-17:00, Wed 15:30-17:00</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Fri 14:30-15:30</t>
+          <t>Thu 14:30-15:30</t>
         </is>
       </c>
       <c r="E20" t="n">
@@ -3343,12 +3288,12 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30, Wed 09:00-10:30</t>
+          <t>Mon 15:30-17:00, Wed 15:30-17:00</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Fri 14:30-15:30</t>
+          <t>Thu 14:30-15:30</t>
         </is>
       </c>
       <c r="E21" t="n">
@@ -3360,356 +3305,6 @@
         </is>
       </c>
       <c r="G21" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B5</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>CS463</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>Mon 09:00-10:30, Wed 09:00-10:30</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>Fri 14:30-15:30</t>
-        </is>
-      </c>
-      <c r="E22" t="n">
-        <v>20</v>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B5</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>CS308</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>Mon 09:00-10:30, Wed 09:00-10:30</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>Fri 14:30-15:30</t>
-        </is>
-      </c>
-      <c r="E23" t="n">
-        <v>20</v>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B5</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>DS301</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>Mon 09:00-10:30, Wed 09:00-10:30</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>Fri 14:30-15:30</t>
-        </is>
-      </c>
-      <c r="E24" t="n">
-        <v>20</v>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B5</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>CS366</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>Mon 09:00-10:30, Wed 09:00-10:30</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>Fri 14:30-15:30</t>
-        </is>
-      </c>
-      <c r="E25" t="n">
-        <v>20</v>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B5</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>DS359</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>Mon 09:00-10:30, Wed 09:00-10:30</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>Fri 14:30-15:30</t>
-        </is>
-      </c>
-      <c r="E26" t="n">
-        <v>20</v>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B5</t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>EC355</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>Mon 09:00-10:30, Wed 09:00-10:30</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>Fri 14:30-15:30</t>
-        </is>
-      </c>
-      <c r="E27" t="n">
-        <v>20</v>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B5</t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>EC364</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>Mon 09:00-10:30, Wed 09:00-10:30</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>Fri 14:30-15:30</t>
-        </is>
-      </c>
-      <c r="E28" t="n">
-        <v>20</v>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B5</t>
-        </is>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>CS352</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>Mon 09:00-10:30, Wed 09:00-10:30</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>Fri 14:30-15:30</t>
-        </is>
-      </c>
-      <c r="E29" t="n">
-        <v>20</v>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B5</t>
-        </is>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>ASD352</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>Mon 09:00-10:30, Wed 09:00-10:30</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>Fri 14:30-15:30</t>
-        </is>
-      </c>
-      <c r="E30" t="n">
-        <v>20</v>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B5</t>
-        </is>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>EC365</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>Mon 09:00-10:30, Wed 09:00-10:30</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>Fri 14:30-15:30</t>
-        </is>
-      </c>
-      <c r="E31" t="n">
-        <v>20</v>
-      </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="G31" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
@@ -3726,7 +3321,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N3"/>
+  <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3814,7 +3409,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>ELECTIVE_B3</t>
+          <t>ELECTIVE_B5</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -3824,7 +3419,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -3834,12 +3429,12 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
@@ -3849,7 +3444,7 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>CS463, CS308, DS301, EC368, CS366, DS359, EC355, CS352, DE351, EC358</t>
+          <t>CS463, CS308, DS301, CS366, DS359, EC355, EC364, CS352, ASD352, EC365, CS463, CS308, DS301, CS366, DS359, EC355, EC364, CS352, ASD352, EC365</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -3877,76 +3472,1334 @@
           <t>FIXED COMMON TIMETABLE SLOTS</t>
         </is>
       </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Semester</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Rule</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Exclusion</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Reason</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Scheduled Baskets</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Status</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Semester 5</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Schedule only ELECTIVE_B5</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Exclude ELECTIVE_B3</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Curriculum requirement - Semester 5 focuses on B5 electives</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>✅ Applied</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H36"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Room Number</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Type</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Capacity</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Weekly Hours (Timetable)</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Daily Avg Hours (Timetable)</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Exam Sessions</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Utilization Rate (%)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Facilities</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>C001</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Recreation</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>nil</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Semester 5</t>
+          <t>C002</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ELECTIVE_B5</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Mon</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>09:00-10:30</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>Wed</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>09:00-10:30</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>Fri</t>
-        </is>
+          <t>116</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>CS463, CS308, DS301, CS366, DS359, EC355, EC364, CS352, ASD352, EC365, CS463, CS308, DS301, CS366, DS359, EC355, EC364, CS352, ASD352, EC365</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>CSE, DSAI, ECE (ALL)</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>A &amp; B (BOTH)</t>
-        </is>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>✅ Achieved</t>
-        </is>
-      </c>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>✅ IDENTICAL across all</t>
-        </is>
-      </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>FIXED COMMON TIMETABLE SLOTS</t>
+          <t>Projector</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>C003</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>135</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>C101</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>C102</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>C103</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>library</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>nil</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Computers</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>C104</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>L105</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Hardware Lab</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Hardware Equipment</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>L106</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Software Lab</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Computers</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>L107</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Software Lab</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Computers</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>C201</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>0</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>C202</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>C203</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>0</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0</v>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>C204</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>0</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0</v>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>C205</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>0</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>L206</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Hardware Lab</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>0</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0</v>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>Hardware Equipment</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>L207</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Software Lab</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
+        <v>0</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0</v>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>Computers</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>L208</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Software Lab</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>Computers</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>C301</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Physics Lab</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D21" t="n">
+        <v>0</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0</v>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>C302</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D22" t="n">
+        <v>0</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0</v>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>C303</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D23" t="n">
+        <v>0</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0</v>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>C304</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D24" t="n">
+        <v>0</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0</v>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>C305</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D25" t="n">
+        <v>0</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0</v>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>L306</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D26" t="n">
+        <v>0</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0</v>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>Computers</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>L307</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Research Scholar Lab</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D27" t="n">
+        <v>0</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0</v>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>Computers</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>L308</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Research Scholar Lab</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D28" t="n">
+        <v>0</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0</v>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>Computers</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>C401</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D29" t="n">
+        <v>0</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0</v>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>C402</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D30" t="n">
+        <v>0</v>
+      </c>
+      <c r="E30" t="n">
+        <v>0</v>
+      </c>
+      <c r="F30" t="n">
+        <v>0</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0</v>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>C403</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="D31" t="n">
+        <v>0</v>
+      </c>
+      <c r="E31" t="n">
+        <v>0</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0</v>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>C404</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="D32" t="n">
+        <v>0</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0</v>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>C405</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="D33" t="n">
+        <v>40</v>
+      </c>
+      <c r="E33" t="n">
+        <v>8</v>
+      </c>
+      <c r="F33" t="n">
+        <v>0</v>
+      </c>
+      <c r="G33" t="n">
+        <v>100</v>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>L406</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="D34" t="n">
+        <v>0</v>
+      </c>
+      <c r="E34" t="n">
+        <v>0</v>
+      </c>
+      <c r="F34" t="n">
+        <v>0</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0</v>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>Computers</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>L407</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="D35" t="n">
+        <v>0</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0</v>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>Computers</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>L408</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>classroom without projector</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="D36" t="n">
+        <v>0</v>
+      </c>
+      <c r="E36" t="n">
+        <v>0</v>
+      </c>
+      <c r="F36" t="n">
+        <v>0</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0</v>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>Computers</t>
         </is>
       </c>
     </row>

--- a/backend/output_timetables/sem5_CSE_timetable_baskets.xlsx
+++ b/backend/output_timetables/sem5_CSE_timetable_baskets.xlsx
@@ -9,6 +9,8 @@
   <sheets>
     <sheet name="Section_A" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="Section_B" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Classroom_Utilization" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Classroom_Allocation" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -435,11 +437,6 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Time Slot</t>
-        </is>
-      </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
           <t>Mon</t>
@@ -467,7 +464,7 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
+      <c r="A2" s="1" t="inlineStr">
         <is>
           <t>09:00-10:30</t>
         </is>
@@ -479,12 +476,12 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>CS304 [C402]</t>
+          <t>CS303 [C004]</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>CS303 [C102]</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -494,199 +491,199 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>CS309 [C402]</t>
+          <t>Free</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
+      <c r="A3" s="1" t="inlineStr">
         <is>
           <t>10:30-12:00</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>CS304 [C202]</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>CS303 [C102]</t>
-        </is>
-      </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>CS303 [C004]</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>CS304 [C402]</t>
-        </is>
-      </c>
       <c r="F3" t="inlineStr">
         <is>
+          <t>CS309 [C401]</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>12:00-13:00</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>LUNCH BREAK</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>LUNCH BREAK</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>LUNCH BREAK</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>LUNCH BREAK</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>LUNCH BREAK</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>13:00-14:30</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>CS309 [C401]</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B4 [C305]</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
           <t>Free</t>
         </is>
       </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>12:00-13:00</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>LUNCH BREAK</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>LUNCH BREAK</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>LUNCH BREAK</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>LUNCH BREAK</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>LUNCH BREAK</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>13:00-14:30</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B4 [C305]</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
         <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>CS303 (Lab) [L306]</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>14:30-15:30</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
         <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>CS304 (Tutorial) [C003]</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B4 (Tutorial) [C302]</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5 (Tutorial) [C204]</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
         <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>15:30-17:00</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5 [C104]</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
         <is>
           <t>Free</t>
         </is>
       </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>14:30-15:30</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5 [C104]</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>CS303 (Lab) [L406]</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>CS304 [C202]</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>17:00-18:00</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
         <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>CS303 (Lab) [L306]</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>CS309 (Tutorial) [C104]</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
         <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B5 (Tutorial) [C002]</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>15:30-17:00</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B5 [C004]</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>CS309 [C402]</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B5 [C004]</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>17:00-18:00</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>CS303 (Tutorial) [C405]</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>CS309 (Tutorial) [C305]</t>
+          <t>CS303 (Lab) [L406]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>CS304 (Tutorial) [C003]</t>
+          <t>CS303 (Tutorial) [C203]</t>
         </is>
       </c>
     </row>
@@ -710,258 +707,3446 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Fri</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>09:00-10:30</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>CS304 [C205]</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>CS304 [C205]</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>10:30-12:00</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>CS309 [C302]</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>CS309 [C302]</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>12:00-13:00</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>LUNCH BREAK</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>LUNCH BREAK</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>LUNCH BREAK</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>LUNCH BREAK</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>LUNCH BREAK</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>13:00-14:30</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>CS303 [C201]</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B4 [C401]</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B4 [C401]</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>CS303 [C201]</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>14:30-15:30</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>CS303 (Tutorial) [C205]</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B4 (Tutorial) [C304]</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5 (Tutorial) [C104]</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>15:30-17:00</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5 [C403]</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5 [C403]</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>CS303 (Lab) [L406]</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>17:00-18:00</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>CS304 (Tutorial) [C304]</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>CS309 (Tutorial) [C201]</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>CS303 (Lab) [L406]</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H36"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Time Slot</t>
+          <t>Room Number</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Type</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Capacity</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Weekly Hours (Timetable)</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Daily Avg Hours (Timetable)</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Fri</t>
+          <t>Exam Sessions</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Utilization Rate (%)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Facilities</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>Recreation</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Free</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>CS303 [C403]</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>CS309 [C403]</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>CS303 [C403]</t>
-        </is>
-      </c>
+          <t>nil</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>10:30-12:00</t>
+          <t>C002</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>CS309 [C403]</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Free</t>
+          <t>116</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Projector</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>12:00-13:00</t>
+          <t>C003</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>LUNCH BREAK</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>LUNCH BREAK</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>LUNCH BREAK</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>LUNCH BREAK</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>LUNCH BREAK</t>
+          <t>135</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>1</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Projector</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>CS303 (Lab) [L407]</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Free</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>CS304 [C204]</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Free</t>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>3</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Projector</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>CS303 (Lab) [L407]</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Free</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>CS304 (Tutorial) [C102]</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B5 (Tutorial) [C401]</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Free</t>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Projector</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ELECTIVE_B5 [C203]</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Free</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B5 [C203]</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>CS304 [C204]</t>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Projector</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
+          <t>C103</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>library</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>nil</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Computers</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>C104</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>5</v>
+      </c>
+      <c r="E9" t="n">
+        <v>1</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>L105</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Hardware Lab</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Hardware Equipment</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>L106</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Software Lab</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Computers</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>L107</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Software Lab</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Computers</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>C201</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>4</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0</v>
+      </c>
+      <c r="G13" t="n">
+        <v>10</v>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>C202</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>3</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>C203</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>1</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0</v>
+      </c>
+      <c r="G15" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>C204</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>1</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0</v>
+      </c>
+      <c r="G16" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>C205</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>4</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" t="n">
+        <v>10</v>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>L206</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Hardware Lab</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>0</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0</v>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>Hardware Equipment</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>L207</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Software Lab</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
+        <v>0</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0</v>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>Computers</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>L208</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Software Lab</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>Computers</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>C301</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Physics Lab</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D21" t="n">
+        <v>0</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0</v>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>C302</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D22" t="n">
+        <v>4</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0</v>
+      </c>
+      <c r="G22" t="n">
+        <v>10</v>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>C303</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D23" t="n">
+        <v>0</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0</v>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>C304</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D24" t="n">
+        <v>2</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0</v>
+      </c>
+      <c r="G24" t="n">
+        <v>5</v>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>C305</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D25" t="n">
+        <v>3</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0</v>
+      </c>
+      <c r="G25" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>L306</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D26" t="n">
+        <v>0</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0</v>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>Computers</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>L307</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Research Scholar Lab</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D27" t="n">
+        <v>0</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0</v>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>Computers</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>L308</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Research Scholar Lab</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D28" t="n">
+        <v>0</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0</v>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>Computers</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>C401</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D29" t="n">
+        <v>6</v>
+      </c>
+      <c r="E29" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G29" t="n">
+        <v>15</v>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>C402</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D30" t="n">
+        <v>0</v>
+      </c>
+      <c r="E30" t="n">
+        <v>0</v>
+      </c>
+      <c r="F30" t="n">
+        <v>0</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0</v>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>C403</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="D31" t="n">
+        <v>3</v>
+      </c>
+      <c r="E31" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0</v>
+      </c>
+      <c r="G31" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>C404</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="D32" t="n">
+        <v>0</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0</v>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>C405</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="D33" t="n">
+        <v>0</v>
+      </c>
+      <c r="E33" t="n">
+        <v>0</v>
+      </c>
+      <c r="F33" t="n">
+        <v>0</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0</v>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>L406</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="D34" t="n">
+        <v>5</v>
+      </c>
+      <c r="E34" t="n">
+        <v>1</v>
+      </c>
+      <c r="F34" t="n">
+        <v>0</v>
+      </c>
+      <c r="G34" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>Computers</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>L407</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="D35" t="n">
+        <v>0</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0</v>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>Computers</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>L408</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>classroom without projector</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="D36" t="n">
+        <v>0</v>
+      </c>
+      <c r="E36" t="n">
+        <v>0</v>
+      </c>
+      <c r="F36" t="n">
+        <v>0</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0</v>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>Computers</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K35"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Semester</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Branch</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Section</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Day</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Time Slot</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Course</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Room Number</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Room Type</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Capacity</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Facilities</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Allocation Type</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>10:30-12:00</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>CS304</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>C202</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>5</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>13:00-14:30</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>CS309</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>C401</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>5</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>15:30-17:00</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>C104</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>5</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>09:00-10:30</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>CS303</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>13:00-14:30</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B4</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>C305</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>14:30-15:30</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>CS304 (Tutorial)</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>C003</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>135</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>5</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>17:00-18:00</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>CS309 (Tutorial) [C003]</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>CS303 (Tutorial) [C403]</t>
-        </is>
-      </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>CS309 (Tutorial)</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>C104</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>5</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>10:30-12:00</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>CS303</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>5</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>14:30-15:30</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B4 (Tutorial)</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>C302</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>5</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>15:30-17:00</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>C104</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>5</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>13:00-14:30</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B4</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>C305</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>5</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>14:30-15:30</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5 (Tutorial)</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>C204</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>5</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>15:30-17:00</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>CS303 (Lab)</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>L406</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>Computers</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>5</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>17:00-18:00</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>CS303 (Lab)</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>L406</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>Computers</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>5</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Fri</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>10:30-12:00</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>CS309</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>C401</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>5</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Fri</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>15:30-17:00</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>CS304</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>C202</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>5</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Fri</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>17:00-18:00</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>CS303 (Tutorial)</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>C203</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>5</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>10:30-12:00</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>CS309</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>C302</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>5</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>13:00-14:30</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>CS303</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>C201</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>5</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>15:30-17:00</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>C403</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>5</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>17:00-18:00</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>CS304 (Tutorial)</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>C304</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>5</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>13:00-14:30</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B4</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>C401</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>5</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>14:30-15:30</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>CS303 (Tutorial)</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>C205</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>5</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>10:30-12:00</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>CS309</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>C302</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>5</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>14:30-15:30</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B4 (Tutorial)</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>C304</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>5</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>15:30-17:00</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>C403</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>5</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>09:00-10:30</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>CS304</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>C205</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>5</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>13:00-14:30</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B4</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>C401</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>5</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>14:30-15:30</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5 (Tutorial)</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>C104</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>5</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>17:00-18:00</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>CS309 (Tutorial)</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>C201</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>5</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>Fri</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>09:00-10:30</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>CS304</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>C205</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>5</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>Fri</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>13:00-14:30</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>CS303</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>C201</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>5</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>Fri</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>15:30-17:00</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>CS303 (Lab)</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>L406</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>Computers</t>
+        </is>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>5</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>Fri</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>17:00-18:00</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>CS303 (Lab)</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>L406</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>Computers</t>
+        </is>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
         </is>
       </c>
     </row>

--- a/backend/output_timetables/sem5_CSE_timetable_baskets.xlsx
+++ b/backend/output_timetables/sem5_CSE_timetable_baskets.xlsx
@@ -476,7 +476,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>CS303 [C004]</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -503,27 +503,27 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>CS304 [C202]</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
+          <t>CS304 [C401]</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>CS303 [C004]</t>
-        </is>
-      </c>
       <c r="E3" t="inlineStr">
         <is>
+          <t>CS304 [C401]</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
           <t>Free</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>CS309 [C401]</t>
         </is>
       </c>
     </row>
@@ -567,27 +567,27 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>CS309 [C401]</t>
+          <t>CS309 [C004]</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>ELECTIVE_B4 [C305]</t>
+          <t>ELECTIVE_B4 [C404]</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>CS303 [C204]</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>ELECTIVE_B4 [C305]</t>
+          <t>ELECTIVE_B4 [C404]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>CS303 [C204]</t>
         </is>
       </c>
     </row>
@@ -599,14 +599,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>CS304 (Tutorial) [C304]</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>CS304 (Tutorial) [C003]</t>
-        </is>
-      </c>
       <c r="D6" t="inlineStr">
         <is>
           <t>ELECTIVE_B4 (Tutorial) [C302]</t>
@@ -614,7 +614,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>ELECTIVE_B5 (Tutorial) [C204]</t>
+          <t>ELECTIVE_B5 (Tutorial) [C303]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -631,27 +631,27 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ELECTIVE_B5 [C104]</t>
+          <t>ELECTIVE_B5 [C203]</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
+          <t>CS303 (Lab) [L408]</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5 [C203]</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B5 [C104]</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>CS303 (Lab) [L406]</t>
-        </is>
-      </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>CS304 [C202]</t>
+          <t>CS309 [C004]</t>
         </is>
       </c>
     </row>
@@ -663,27 +663,27 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>CS303 (Tutorial) [C302]</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>CS303 (Lab) [L408]</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>CS309 (Tutorial) [C004]</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>CS309 (Tutorial) [C104]</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>Free</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>CS303 (Lab) [L406]</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>CS303 (Tutorial) [C203]</t>
         </is>
       </c>
     </row>
@@ -741,27 +741,27 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>CS304 [C203]</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>CS304 [C203]</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
         <is>
           <t>Free</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>CS304 [C205]</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>CS304 [C205]</t>
         </is>
       </c>
     </row>
@@ -773,7 +773,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>CS309 [C302]</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -783,12 +783,12 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>CS309 [C302]</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>CS309 [C102]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -837,27 +837,27 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>CS303 [C201]</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>ELECTIVE_B4 [C401]</t>
+          <t>ELECTIVE_B4 [C305]</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>CS303 [C203]</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>ELECTIVE_B4 [C401]</t>
+          <t>ELECTIVE_B4 [C305]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>CS303 [C201]</t>
+          <t>CS303 (Lab) [L406]</t>
         </is>
       </c>
     </row>
@@ -869,27 +869,27 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>CS303 (Tutorial) [C402]</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>CS303 (Tutorial) [C205]</t>
+          <t>CS304 (Tutorial) [C305]</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>ELECTIVE_B4 (Tutorial) [C304]</t>
+          <t>ELECTIVE_B4 (Tutorial) [C101]</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>ELECTIVE_B5 (Tutorial) [C104]</t>
+          <t>ELECTIVE_B5 (Tutorial) [C402]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>CS303 (Lab) [L406]</t>
         </is>
       </c>
     </row>
@@ -901,7 +901,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ELECTIVE_B5 [C403]</t>
+          <t>ELECTIVE_B5 [C104]</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -911,17 +911,17 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>ELECTIVE_B5 [C403]</t>
+          <t>ELECTIVE_B5 [C104]</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>CS303 [C203]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>CS303 (Lab) [L406]</t>
+          <t>CS309 [C102]</t>
         </is>
       </c>
     </row>
@@ -933,27 +933,27 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>CS304 (Tutorial) [C304]</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
+          <t>CS309 (Tutorial) [C304]</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>CS309 (Tutorial) [C201]</t>
-        </is>
-      </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>CS303 (Lab) [L406]</t>
+          <t>Free</t>
         </is>
       </c>
     </row>
@@ -1099,16 +1099,16 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
@@ -1133,16 +1133,16 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E5" t="n">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>7.5</v>
+        <v>10</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
@@ -1167,16 +1167,16 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
@@ -1201,16 +1201,16 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
@@ -1269,16 +1269,16 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E9" t="n">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>12.5</v>
+        <v>7.5</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
@@ -1405,16 +1405,16 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="H13" t="inlineStr">
         <is>
@@ -1439,16 +1439,16 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>7.5</v>
+        <v>0</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
@@ -1473,16 +1473,16 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="E15" t="n">
-        <v>0.2</v>
+        <v>1.8</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.5</v>
+        <v>22.5</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
@@ -1507,16 +1507,16 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E16" t="n">
-        <v>0.2</v>
+        <v>0.6</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.5</v>
+        <v>7.5</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
@@ -1541,16 +1541,16 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="H17" t="inlineStr">
         <is>
@@ -1711,16 +1711,16 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E22" t="n">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="H22" t="inlineStr">
         <is>
@@ -1745,16 +1745,16 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="H23" t="inlineStr">
         <is>
@@ -1813,16 +1813,16 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E25" t="n">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>7.5</v>
+        <v>10</v>
       </c>
       <c r="H25" t="inlineStr">
         <is>
@@ -1949,16 +1949,16 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E29" t="n">
-        <v>1.2</v>
+        <v>0.6</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>15</v>
+        <v>7.5</v>
       </c>
       <c r="H29" t="inlineStr">
         <is>
@@ -1983,16 +1983,16 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="F30" t="n">
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H30" t="inlineStr">
         <is>
@@ -2017,16 +2017,16 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>7.5</v>
+        <v>0</v>
       </c>
       <c r="H31" t="inlineStr">
         <is>
@@ -2051,16 +2051,16 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="H32" t="inlineStr">
         <is>
@@ -2119,16 +2119,16 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>5</v>
+        <v>2.5</v>
       </c>
       <c r="E34" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>12.5</v>
+        <v>6.25</v>
       </c>
       <c r="H34" t="inlineStr">
         <is>
@@ -2187,16 +2187,16 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F36" t="n">
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>6.25</v>
       </c>
       <c r="H36" t="inlineStr">
         <is>
@@ -2301,27 +2301,27 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>10:30-12:00</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>CS304</t>
+          <t>CS309</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>240</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -2356,17 +2356,17 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>CS309</t>
+          <t>CS304 (Tutorial)</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>C401</t>
+          <t>C304</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -2421,7 +2421,7 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>C104</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -2461,32 +2461,32 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>17:00-18:00</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>CS303</t>
+          <t>CS303 (Tutorial)</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C302</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -2521,17 +2521,17 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>10:30-12:00</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>ELECTIVE_B4</t>
+          <t>CS304</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>C305</t>
+          <t>C401</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
@@ -2576,27 +2576,27 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>CS304 (Tutorial)</t>
+          <t>ELECTIVE_B4</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>C003</t>
+          <t>C404</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>78</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -2631,32 +2631,32 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>17:00-18:00</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>CS309 (Tutorial)</t>
+          <t>CS303 (Lab)</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>C104</t>
+          <t>L408</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>classroom without projector</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>78</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>Computers</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
@@ -2681,37 +2681,37 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>10:30-12:00</t>
+          <t>17:00-18:00</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>CS303</t>
+          <t>CS303 (Lab)</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>L408</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom without projector</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>78</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>Computers</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
@@ -2741,17 +2741,17 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>ELECTIVE_B4 (Tutorial)</t>
+          <t>CS303</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>C302</t>
+          <t>C204</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
@@ -2796,17 +2796,17 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>ELECTIVE_B5</t>
+          <t>ELECTIVE_B4 (Tutorial)</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>C104</t>
+          <t>C302</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
@@ -2846,22 +2846,22 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>ELECTIVE_B4</t>
+          <t>ELECTIVE_B5</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>C305</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
@@ -2901,32 +2901,32 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>17:00-18:00</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>ELECTIVE_B5 (Tutorial)</t>
+          <t>CS309 (Tutorial)</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>C204</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>240</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -2961,17 +2961,17 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>10:30-12:00</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>CS303 (Lab)</t>
+          <t>CS304</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>L406</t>
+          <t>C401</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
@@ -2981,12 +2981,12 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>96</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>Computers</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
@@ -3016,17 +3016,17 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>17:00-18:00</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>CS303 (Lab)</t>
+          <t>ELECTIVE_B4</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>L406</t>
+          <t>C404</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
@@ -3041,7 +3041,7 @@
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>Computers</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
@@ -3066,22 +3066,22 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Fri</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>10:30-12:00</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>CS309</t>
+          <t>ELECTIVE_B5 (Tutorial)</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>C401</t>
+          <t>C303</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
@@ -3126,17 +3126,17 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>CS304</t>
+          <t>CS303</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>C204</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
@@ -3181,27 +3181,27 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>17:00-18:00</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>CS303 (Tutorial)</t>
+          <t>CS309</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>C203</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>240</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
@@ -3236,17 +3236,17 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>10:30-12:00</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>CS309</t>
+          <t>CS304</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>C302</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
@@ -3291,17 +3291,17 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>CS303</t>
+          <t>CS303 (Tutorial)</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>C201</t>
+          <t>C402</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
@@ -3356,7 +3356,7 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>C403</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
@@ -3366,7 +3366,7 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>96</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
@@ -3396,22 +3396,22 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>17:00-18:00</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>CS304 (Tutorial)</t>
+          <t>ELECTIVE_B4</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>C304</t>
+          <t>C305</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
@@ -3456,17 +3456,17 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>ELECTIVE_B4</t>
+          <t>CS304 (Tutorial)</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>C401</t>
+          <t>C305</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
@@ -3511,17 +3511,17 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>17:00-18:00</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>CS303 (Tutorial)</t>
+          <t>CS309 (Tutorial)</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>C205</t>
+          <t>C304</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
@@ -3566,17 +3566,17 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>10:30-12:00</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>CS309</t>
+          <t>CS303</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>C302</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
@@ -3631,7 +3631,7 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>C304</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
@@ -3686,7 +3686,7 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>C403</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
@@ -3696,7 +3696,7 @@
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>96</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
@@ -3741,7 +3741,7 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>C205</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
@@ -3786,17 +3786,17 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>10:30-12:00</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>ELECTIVE_B4</t>
+          <t>CS309</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>C401</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
@@ -3841,17 +3841,17 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>ELECTIVE_B5 (Tutorial)</t>
+          <t>ELECTIVE_B4</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>C104</t>
+          <t>C305</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
@@ -3896,17 +3896,17 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>17:00-18:00</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>CS309 (Tutorial)</t>
+          <t>ELECTIVE_B5 (Tutorial)</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>C201</t>
+          <t>C402</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
@@ -3946,22 +3946,22 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Fri</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>CS304</t>
+          <t>CS303</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>C205</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
@@ -4011,12 +4011,12 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>CS303</t>
+          <t>CS303 (Lab)</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>C201</t>
+          <t>L406</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
@@ -4026,12 +4026,12 @@
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>78</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>Computers</t>
         </is>
       </c>
       <c r="K33" t="inlineStr">
@@ -4061,7 +4061,7 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
@@ -4116,17 +4116,17 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>17:00-18:00</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>CS303 (Lab)</t>
+          <t>CS309</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>L406</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
@@ -4136,12 +4136,12 @@
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>96</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>Computers</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="K35" t="inlineStr">

--- a/backend/output_timetables/sem5_CSE_timetable_baskets.xlsx
+++ b/backend/output_timetables/sem5_CSE_timetable_baskets.xlsx
@@ -476,12 +476,12 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>CS303 [C404]</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>CS303 [C404]</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -508,22 +508,22 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>CS304 [C401]</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>CS304 [C303]</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>CS304 [C401]</t>
-        </is>
-      </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>CS309 [C104]</t>
         </is>
       </c>
     </row>
@@ -567,27 +567,27 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>CS309 [C004]</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>ELECTIVE_B4 [C404]</t>
+          <t>ELECTIVE_B4 [C304]</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>CS303 [C204]</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>ELECTIVE_B4 [C404]</t>
+          <t>ELECTIVE_B4 [C304]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>CS303 [C204]</t>
+          <t>Free</t>
         </is>
       </c>
     </row>
@@ -599,22 +599,22 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>CS304 (Tutorial) [C304]</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>CS309 (Tutorial) [C303]</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>ELECTIVE_B4 (Tutorial) [C302]</t>
+          <t>ELECTIVE_B4 (Tutorial) [C304]</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>ELECTIVE_B5 (Tutorial) [C303]</t>
+          <t>ELECTIVE_B5 (Tutorial) [C004]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -631,27 +631,27 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ELECTIVE_B5 [C203]</t>
+          <t>ELECTIVE_B5 [C205]</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>CS303 (Lab) [L408]</t>
+          <t>CS303 (Lab) [L306]</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>ELECTIVE_B5 [C203]</t>
+          <t>ELECTIVE_B5 [C205]</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>CS309 [C104]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>CS309 [C004]</t>
+          <t>CS304 [C303]</t>
         </is>
       </c>
     </row>
@@ -663,22 +663,22 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>CS303 (Tutorial) [C302]</t>
+          <t>CS304 (Tutorial) [C401]</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>CS303 (Lab) [L408]</t>
+          <t>CS303 (Lab) [L306]</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>CS309 (Tutorial) [C004]</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>CS303 (Tutorial) [C404]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -741,7 +741,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>CS304 [C203]</t>
+          <t>CS304 [C002]</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -756,7 +756,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>CS304 [C203]</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -773,27 +773,27 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>CS309 [C102]</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="D3" t="inlineStr">
         <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>CS309 [C102]</t>
+          <t>CS303 [C202]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>CS304 [C002]</t>
         </is>
       </c>
     </row>
@@ -837,27 +837,27 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>CS303 [C202]</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B4 [C403]</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B4 [C305]</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>CS303 [C203]</t>
-        </is>
-      </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>ELECTIVE_B4 [C305]</t>
+          <t>ELECTIVE_B4 [C403]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>CS303 (Lab) [L406]</t>
+          <t>Free</t>
         </is>
       </c>
     </row>
@@ -869,12 +869,12 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>CS303 (Tutorial) [C402]</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>CS304 (Tutorial) [C305]</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -884,12 +884,12 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>ELECTIVE_B5 (Tutorial) [C402]</t>
+          <t>ELECTIVE_B5 (Tutorial) [C304]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>CS303 (Lab) [L406]</t>
+          <t>CS303 (Tutorial) [C405]</t>
         </is>
       </c>
     </row>
@@ -901,27 +901,27 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ELECTIVE_B5 [C104]</t>
+          <t>ELECTIVE_B5 [C403]</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
+          <t>CS309 [C102]</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5 [C403]</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B5 [C104]</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>CS303 [C203]</t>
-        </is>
-      </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>CS309 [C102]</t>
+          <t>CS303 (Lab) [L406]</t>
         </is>
       </c>
     </row>
@@ -938,22 +938,22 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>CS309 (Tutorial) [C304]</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>CS309 (Tutorial) [C104]</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>CS304 (Tutorial) [C102]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>CS303 (Lab) [L406]</t>
         </is>
       </c>
     </row>
@@ -1065,16 +1065,16 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
@@ -1133,16 +1133,16 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E5" t="n">
-        <v>0.8</v>
+        <v>0.2</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>10</v>
+        <v>2.5</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
@@ -1201,16 +1201,16 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E7" t="n">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>7.5</v>
+        <v>10</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
@@ -1269,16 +1269,16 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E9" t="n">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>7.5</v>
+        <v>10</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
@@ -1439,16 +1439,16 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
@@ -1473,16 +1473,16 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>1.8</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>22.5</v>
+        <v>0</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
@@ -1507,16 +1507,16 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>7.5</v>
+        <v>0</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
@@ -1541,16 +1541,16 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="H17" t="inlineStr">
         <is>
@@ -1711,16 +1711,16 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H22" t="inlineStr">
         <is>
@@ -1745,16 +1745,16 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E23" t="n">
-        <v>0.2</v>
+        <v>0.8</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>2.5</v>
+        <v>10</v>
       </c>
       <c r="H23" t="inlineStr">
         <is>
@@ -1779,16 +1779,16 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E24" t="n">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="F24" t="n">
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>5</v>
+        <v>12.5</v>
       </c>
       <c r="H24" t="inlineStr">
         <is>
@@ -1813,16 +1813,16 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="H25" t="inlineStr">
         <is>
@@ -1847,16 +1847,16 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>6.25</v>
       </c>
       <c r="H26" t="inlineStr">
         <is>
@@ -1949,16 +1949,16 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E29" t="n">
-        <v>0.6</v>
+        <v>0.2</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>7.5</v>
+        <v>2.5</v>
       </c>
       <c r="H29" t="inlineStr">
         <is>
@@ -1983,16 +1983,16 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H30" t="inlineStr">
         <is>
@@ -2017,16 +2017,16 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="H31" t="inlineStr">
         <is>
@@ -2051,16 +2051,16 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E32" t="n">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>7.5</v>
+        <v>10</v>
       </c>
       <c r="H32" t="inlineStr">
         <is>
@@ -2085,16 +2085,16 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="F33" t="n">
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="H33" t="inlineStr">
         <is>
@@ -2187,16 +2187,16 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>6.25</v>
+        <v>0</v>
       </c>
       <c r="H36" t="inlineStr">
         <is>
@@ -2301,27 +2301,27 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>CS309</t>
+          <t>ELECTIVE_B5</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C205</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -2356,7 +2356,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>17:00-18:00</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -2366,7 +2366,7 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>C304</t>
+          <t>C401</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -2406,22 +2406,22 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>ELECTIVE_B5</t>
+          <t>CS303</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>C203</t>
+          <t>C404</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -2431,7 +2431,7 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>78</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -2461,22 +2461,22 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>17:00-18:00</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>CS303 (Tutorial)</t>
+          <t>ELECTIVE_B4</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>C302</t>
+          <t>C304</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
@@ -2521,17 +2521,17 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>10:30-12:00</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>CS304</t>
+          <t>CS309 (Tutorial)</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>C401</t>
+          <t>C303</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
@@ -2576,17 +2576,17 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>ELECTIVE_B4</t>
+          <t>CS303 (Lab)</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>C404</t>
+          <t>L306</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
@@ -2596,12 +2596,12 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>96</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>Computers</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
@@ -2631,7 +2631,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>17:00-18:00</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -2641,17 +2641,17 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>L408</t>
+          <t>L306</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>classroom without projector</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>96</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -2681,27 +2681,27 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>17:00-18:00</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>CS303 (Lab)</t>
+          <t>CS303</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>L408</t>
+          <t>C404</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>classroom without projector</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -2711,7 +2711,7 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>Computers</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
@@ -2741,17 +2741,17 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>10:30-12:00</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>CS303</t>
+          <t>CS304</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>C204</t>
+          <t>C303</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
@@ -2806,7 +2806,7 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>C302</t>
+          <t>C304</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
@@ -2861,7 +2861,7 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>C203</t>
+          <t>C205</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
@@ -2901,32 +2901,32 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>17:00-18:00</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>CS309 (Tutorial)</t>
+          <t>ELECTIVE_B4</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C304</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -2961,27 +2961,27 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>10:30-12:00</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>CS304</t>
+          <t>ELECTIVE_B5 (Tutorial)</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>C401</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>240</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -3016,17 +3016,17 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>ELECTIVE_B4</t>
+          <t>CS309</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>C404</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
@@ -3036,7 +3036,7 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>96</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -3071,17 +3071,17 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>17:00-18:00</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>ELECTIVE_B5 (Tutorial)</t>
+          <t>CS303 (Tutorial)</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>C303</t>
+          <t>C404</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
@@ -3091,7 +3091,7 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>78</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -3126,17 +3126,17 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>10:30-12:00</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>CS303</t>
+          <t>CS309</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>C204</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
@@ -3186,22 +3186,22 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>CS309</t>
+          <t>CS304</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C303</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
@@ -3246,17 +3246,17 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>C203</t>
+          <t>C002</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>116</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
@@ -3291,17 +3291,17 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>10:30-12:00</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>CS303 (Tutorial)</t>
+          <t>CS309</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>C402</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
@@ -3346,17 +3346,17 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>ELECTIVE_B5</t>
+          <t>CS303</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>C104</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
@@ -3396,22 +3396,22 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>ELECTIVE_B4</t>
+          <t>ELECTIVE_B5</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>C305</t>
+          <t>C403</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
@@ -3421,7 +3421,7 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>78</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
@@ -3456,17 +3456,17 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>CS304 (Tutorial)</t>
+          <t>ELECTIVE_B4</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>C305</t>
+          <t>C403</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
@@ -3476,7 +3476,7 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>78</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
@@ -3511,17 +3511,17 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>17:00-18:00</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>CS309 (Tutorial)</t>
+          <t>CS309</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>C304</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
@@ -3566,17 +3566,17 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>CS303</t>
+          <t>ELECTIVE_B4 (Tutorial)</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>C203</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
@@ -3621,17 +3621,17 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>ELECTIVE_B4 (Tutorial)</t>
+          <t>ELECTIVE_B5</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C403</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
@@ -3641,7 +3641,7 @@
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>78</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
@@ -3676,12 +3676,12 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>17:00-18:00</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>ELECTIVE_B5</t>
+          <t>CS309 (Tutorial)</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
@@ -3731,17 +3731,17 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>10:30-12:00</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>CS304</t>
+          <t>CS303</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>C203</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
@@ -3786,17 +3786,17 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>10:30-12:00</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>CS309</t>
+          <t>ELECTIVE_B4</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C403</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
@@ -3806,7 +3806,7 @@
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>78</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
@@ -3841,17 +3841,17 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>ELECTIVE_B4</t>
+          <t>ELECTIVE_B5 (Tutorial)</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>C305</t>
+          <t>C304</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
@@ -3896,17 +3896,17 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>17:00-18:00</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>ELECTIVE_B5 (Tutorial)</t>
+          <t>CS304 (Tutorial)</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>C402</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
@@ -3946,32 +3946,32 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>10:30-12:00</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>CS303</t>
+          <t>CS304</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>C203</t>
+          <t>C002</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>116</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
@@ -4006,17 +4006,17 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>CS303 (Lab)</t>
+          <t>CS303 (Tutorial)</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>L406</t>
+          <t>C405</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
@@ -4031,7 +4031,7 @@
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>Computers</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="K33" t="inlineStr">
@@ -4061,7 +4061,7 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
@@ -4116,17 +4116,17 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>17:00-18:00</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>CS309</t>
+          <t>CS303 (Lab)</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>L406</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
@@ -4136,12 +4136,12 @@
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>78</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>Computers</t>
         </is>
       </c>
       <c r="K35" t="inlineStr">

--- a/backend/output_timetables/sem5_CSE_timetable_baskets.xlsx
+++ b/backend/output_timetables/sem5_CSE_timetable_baskets.xlsx
@@ -479,17 +479,17 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>CS309 [C403]</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>CS303 [C102]</t>
-        </is>
-      </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>CS309 [C401]</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -521,17 +521,17 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>CS303 [C401]</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>CS309 [C403]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>CS304 [C104]</t>
         </is>
       </c>
     </row>
@@ -580,17 +580,17 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>ELECTIVE_B4 [C002]</t>
+          <t>ELECTIVE_B4 [C101]</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>CS304 [C202]</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>ELECTIVE_B4 [C002]</t>
+          <t>ELECTIVE_B4 [C101]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -607,7 +607,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>CS304 (Tutorial) [C405]</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -617,12 +617,12 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>ELECTIVE_B4 (Tutorial) [C002]</t>
+          <t>ELECTIVE_B4 (Tutorial) [C004]</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>ELECTIVE_B5 (Tutorial) [C003]</t>
+          <t>ELECTIVE_B5 (Tutorial) [C403]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -639,27 +639,27 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ELECTIVE_B5 [C101]</t>
+          <t>ELECTIVE_B5 [C204]</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>CS304 [C202]</t>
+          <t>CS303 [C401]</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>ELECTIVE_B5 [C101]</t>
+          <t>ELECTIVE_B5 [C204]</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>CS309 [C401]</t>
+          <t>CS304 [C104]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>CS303 [C102]</t>
+          <t>Free</t>
         </is>
       </c>
     </row>
@@ -671,27 +671,27 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>CS303 (Tutorial) [C403]</t>
+          <t>CS303 (Tutorial) [C002]</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
+          <t>CS304 (Tutorial) [C404]</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>CS309 (Tutorial) [C401]</t>
+          <t>CS309 (Tutorial) [C204]</t>
         </is>
       </c>
     </row>
@@ -1559,16 +1559,16 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E3" t="n">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
@@ -1593,16 +1593,16 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
@@ -1627,16 +1627,16 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
@@ -1661,16 +1661,16 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E6" t="n">
-        <v>0.8</v>
+        <v>1.2</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
@@ -1763,16 +1763,16 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E9" t="n">
-        <v>0.2</v>
+        <v>0.8</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.5</v>
+        <v>10</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
@@ -1933,16 +1933,16 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E14" t="n">
-        <v>0.6</v>
+        <v>0.2</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>7.5</v>
+        <v>2.5</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
@@ -2001,16 +2001,16 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
@@ -2205,16 +2205,16 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="H22" t="inlineStr">
         <is>
@@ -2307,16 +2307,16 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="E25" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>7.5</v>
+        <v>6.25</v>
       </c>
       <c r="H25" t="inlineStr">
         <is>
@@ -2443,16 +2443,16 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E29" t="n">
-        <v>0.8</v>
+        <v>1.2</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="H29" t="inlineStr">
         <is>
@@ -2511,16 +2511,16 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>8</v>
+        <v>5.5</v>
       </c>
       <c r="E31" t="n">
-        <v>1.6</v>
+        <v>1.1</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>20</v>
+        <v>13.75</v>
       </c>
       <c r="H31" t="inlineStr">
         <is>
@@ -2545,16 +2545,16 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="H32" t="inlineStr">
         <is>
@@ -2579,16 +2579,16 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="H33" t="inlineStr">
         <is>
@@ -2647,16 +2647,16 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>6.25</v>
+        <v>0</v>
       </c>
       <c r="H35" t="inlineStr">
         <is>
@@ -2681,16 +2681,16 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>2.5</v>
+        <v>5</v>
       </c>
       <c r="E36" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="F36" t="n">
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>6.25</v>
+        <v>12.5</v>
       </c>
       <c r="H36" t="inlineStr">
         <is>
@@ -2795,17 +2795,17 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>CS304 (Tutorial)</t>
+          <t>CS309</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>C405</t>
+          <t>C403</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
@@ -2860,7 +2860,7 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C204</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -2915,17 +2915,17 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>C403</t>
+          <t>C002</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>116</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -2960,17 +2960,17 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>CS303</t>
+          <t>ELECTIVE_B4</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
@@ -3015,27 +3015,27 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>ELECTIVE_B4</t>
+          <t>CS303</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>C401</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>116</t>
+          <t>96</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -3070,17 +3070,17 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>17:00-18:00</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>CS304</t>
+          <t>CS304 (Tutorial)</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>C404</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
@@ -3090,7 +3090,7 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>78</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -3125,12 +3125,12 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>10:30-12:00</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>CS309</t>
+          <t>CS303</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
@@ -3180,27 +3180,27 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>CS304</t>
+          <t>ELECTIVE_B4 (Tutorial)</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>240</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -3235,27 +3235,27 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>ELECTIVE_B4 (Tutorial)</t>
+          <t>ELECTIVE_B5</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>C204</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>116</t>
+          <t>96</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -3285,22 +3285,22 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>10:30-12:00</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>ELECTIVE_B5</t>
+          <t>CS309</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C403</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
@@ -3310,7 +3310,7 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>78</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -3355,17 +3355,17 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>116</t>
+          <t>96</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -3410,17 +3410,17 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>C003</t>
+          <t>C403</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>78</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -3460,12 +3460,12 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>CS309</t>
+          <t>CS304</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>C401</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
@@ -3510,32 +3510,32 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>10:30-12:00</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>CS303 (Lab)</t>
+          <t>CS304</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>L408</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>classroom without projector</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>96</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>Computers</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
@@ -3565,7 +3565,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -3620,32 +3620,32 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>CS303</t>
+          <t>CS303 (Lab)</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>L408</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>classroom without projector</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>78</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>Computers</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
@@ -3685,7 +3685,7 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>C401</t>
+          <t>C204</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
@@ -3730,12 +3730,12 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>10:30-12:00</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>CS309</t>
+          <t>CS303</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
@@ -3790,12 +3790,12 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>CS304 (Tutorial)</t>
+          <t>CS309 (Tutorial)</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>C205</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
@@ -3850,7 +3850,7 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>C302</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
@@ -3900,12 +3900,12 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>CS303</t>
+          <t>CS309</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>C305</t>
+          <t>C303</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
@@ -3960,7 +3960,7 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>C303</t>
+          <t>C401</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
@@ -4010,12 +4010,12 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>CS309 (Tutorial)</t>
+          <t>CS304 (Tutorial)</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>C302</t>
+          <t>C305</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
@@ -4070,12 +4070,12 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>L407</t>
+          <t>L408</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>classroom without projector</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
@@ -4125,12 +4125,12 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>L407</t>
+          <t>L408</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>classroom without projector</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
@@ -4175,12 +4175,12 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>CS304</t>
+          <t>CS309</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>C403</t>
+          <t>C303</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
@@ -4190,7 +4190,7 @@
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>96</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
@@ -4230,12 +4230,12 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>CS309</t>
+          <t>CS304</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>C403</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
@@ -4245,7 +4245,7 @@
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>96</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
@@ -4290,7 +4290,7 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>C104</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
@@ -4345,7 +4345,7 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>C302</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
@@ -4385,22 +4385,22 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>17:00-18:00</t>
+          <t>10:30-12:00</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>CS303 (Tutorial)</t>
+          <t>CS303</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C305</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
@@ -4455,7 +4455,7 @@
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>C303</t>
+          <t>C401</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
@@ -4510,17 +4510,17 @@
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>C403</t>
+          <t>C002</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>116</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
@@ -4555,17 +4555,17 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>10:30-12:00</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>CS303</t>
+          <t>CS304</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>C305</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
@@ -4610,17 +4610,17 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>17:00-18:00</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>CS304</t>
+          <t>CS303 (Tutorial)</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>C403</t>
+          <t>C205</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
@@ -4630,7 +4630,7 @@
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>96</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
@@ -4708,7 +4708,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>CS304 [C403]</t>
+          <t>CS309 [C303]</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -4730,27 +4730,27 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>CS303 [C403]</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>CS309 [C303]</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>CS304 [C101]</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>CS303 [C305]</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
           <t>Free</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>CS303 [C305]</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>CS309 [C403]</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>CS303 [C305]</t>
         </is>
       </c>
     </row>
@@ -4794,12 +4794,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>CS309 [C403]</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>ELECTIVE_B4 [C303]</t>
+          <t>ELECTIVE_B4 [C401]</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -4809,7 +4809,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>ELECTIVE_B4 [C303]</t>
+          <t>ELECTIVE_B4 [C401]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -4826,22 +4826,22 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>CS304 (Tutorial) [C205]</t>
+          <t>CS309 (Tutorial) [C104]</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>CS309 (Tutorial) [C302]</t>
+          <t>CS304 (Tutorial) [C305]</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>ELECTIVE_B4 (Tutorial) [C104]</t>
+          <t>ELECTIVE_B4 (Tutorial) [C202]</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>ELECTIVE_B5 (Tutorial) [C403]</t>
+          <t>ELECTIVE_B5 (Tutorial) [C002]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -4858,17 +4858,17 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ELECTIVE_B5 [C302]</t>
+          <t>ELECTIVE_B5 [C102]</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>CS303 (Lab) [L407]</t>
+          <t>CS303 (Lab) [L408]</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>ELECTIVE_B5 [C302]</t>
+          <t>ELECTIVE_B5 [C102]</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -4878,7 +4878,7 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>CS304 [C403]</t>
+          <t>CS304 [C101]</t>
         </is>
       </c>
     </row>
@@ -4895,12 +4895,12 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>CS303 (Lab) [L407]</t>
+          <t>CS303 (Lab) [L408]</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>CS303 (Tutorial) [C101]</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -4910,7 +4910,7 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>CS303 (Tutorial) [C205]</t>
         </is>
       </c>
     </row>
@@ -4983,17 +4983,17 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>**CS304**</t>
+          <t>**CS309**</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Artificial Intelligence</t>
+          <t>Statistics for CS</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Animesh Chaturvedi</t>
+          <t>Sunil C K, Pavan</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -5023,7 +5023,7 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>C202, C405</t>
+          <t>C403, C204</t>
         </is>
       </c>
     </row>
@@ -5070,7 +5070,7 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>C003, C101</t>
+          <t>C403, C204</t>
         </is>
       </c>
     </row>
@@ -5117,7 +5117,7 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>C102, C403, L408</t>
+          <t>C401, C002, L408</t>
         </is>
       </c>
     </row>
@@ -5164,24 +5164,24 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>C101, C004</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>**CS309**</t>
+          <t>**CS304**</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Statistics for CS</t>
+          <t>Artificial Intelligence</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Sunil C K, Pavan</t>
+          <t>Animesh Chaturvedi</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -5211,7 +5211,7 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>C401</t>
+          <t>C104, C404</t>
         </is>
       </c>
     </row>
@@ -5253,7 +5253,7 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>⚠️ 5 issues</t>
+          <t>[WARN] 5 issues</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -5331,22 +5331,22 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>**CS309**</t>
+          <t>**CS303**</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Statistics for CS</t>
+          <t>Computer Networks</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Sunil C K, Pavan</t>
+          <t>Animesh Roy, Dibyajyothi</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>3-1-0-0-4</t>
+          <t>3-1-2-0-5</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -5356,7 +5356,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>0/0</t>
+          <t>2/1</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -5371,24 +5371,24 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>C302, C403</t>
+          <t>C205, C403, L408, C305</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>**CS304**</t>
+          <t>**CS309**</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Artificial Intelligence</t>
+          <t>Statistics for CS</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Animesh Chaturvedi</t>
+          <t>Sunil C K, Pavan</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -5418,7 +5418,7 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>C205, C403</t>
+          <t>C104, C303</t>
         </is>
       </c>
     </row>
@@ -5465,39 +5465,39 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>C302, C403</t>
+          <t>C002, C102</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>**CS303**</t>
+          <t>**ELECTIVE_B4**</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Computer Networks</t>
+          <t>Elective Basket</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Animesh Roy, Dibyajyothi</t>
+          <t>–</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>3-1-2-0-5</t>
+          <t>3-0-0-0-3</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2/1</t>
+          <t>0/0</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2/1</t>
+          <t>0/0</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -5512,41 +5512,41 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>C305, L407, C101</t>
+          <t>C401, C202</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>**ELECTIVE_B4**</t>
+          <t>**CS304**</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Elective Basket</t>
+          <t>Artificial Intelligence</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>–</t>
+          <t>Animesh Chaturvedi</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>3-0-0-0-3</t>
+          <t>3-1-0-0-4</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>2/1</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
           <t>0/0</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>0/0</t>
-        </is>
-      </c>
       <c r="G6" t="inlineStr">
         <is>
           <t>No</t>
@@ -5559,7 +5559,7 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>C303, C104</t>
+          <t>C305, C101</t>
         </is>
       </c>
     </row>
@@ -5601,7 +5601,7 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>⚠️ 5 issues</t>
+          <t>[WARN] 5 issues</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -5621,7 +5621,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I16"/>
+  <dimension ref="A1:I15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5698,11 +5698,11 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>A, B</t>
         </is>
       </c>
       <c r="G2" t="n">
@@ -5710,29 +5710,29 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>ELECTIVE_B4, ELECTIVE_B4 (Tutorial)</t>
+          <t>CS303 (Tutorial), ELECTIVE_B5 (Tutorial)</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>0.6</t>
+          <t>0.4</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>C003</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>240</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -5753,7 +5753,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>ELECTIVE_B5 (Tutorial)</t>
+          <t>ELECTIVE_B4 (Tutorial)</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -5784,7 +5784,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
@@ -5796,12 +5796,12 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>ELECTIVE_B5, CS303 (Tutorial)</t>
+          <t>CS304, ELECTIVE_B4</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>0.6</t>
+          <t>0.8</t>
         </is>
       </c>
     </row>
@@ -5831,7 +5831,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="G5" t="n">
@@ -5839,7 +5839,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>CS303</t>
+          <t>ELECTIVE_B5</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -5870,24 +5870,24 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A, B</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>ELECTIVE_B4 (Tutorial)</t>
+          <t>CS309 (Tutorial), CS304</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>0.6</t>
         </is>
       </c>
     </row>
@@ -5913,11 +5913,11 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="G7" t="n">
@@ -5925,19 +5925,19 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>CS304</t>
+          <t>ELECTIVE_B4 (Tutorial)</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>0.4</t>
+          <t>0.2</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>C205</t>
+          <t>C204</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -5956,31 +5956,31 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="G8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>CS304 (Tutorial)</t>
+          <t>CS309 (Tutorial), ELECTIVE_B5</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>0.6</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>C302</t>
+          <t>C205</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -5999,7 +5999,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
@@ -6007,16 +6007,16 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>CS309 (Tutorial), ELECTIVE_B5</t>
+          <t>CS303 (Tutorial)</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>0.6</t>
+          <t>0.2</t>
         </is>
       </c>
     </row>
@@ -6054,7 +6054,7 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>ELECTIVE_B4</t>
+          <t>CS309</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
@@ -6093,11 +6093,11 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>CS303</t>
+          <t>CS303, CS304 (Tutorial)</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
@@ -6128,11 +6128,11 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>A, B</t>
         </is>
       </c>
       <c r="G12" t="n">
@@ -6140,12 +6140,12 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>CS309 (Tutorial), CS309</t>
+          <t>CS303, ELECTIVE_B4</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>0.6</t>
+          <t>0.8</t>
         </is>
       </c>
     </row>
@@ -6171,7 +6171,7 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
@@ -6179,23 +6179,23 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>ELECTIVE_B5 (Tutorial), CS304, CS303 (Tutorial)...</t>
+          <t>CS303, ELECTIVE_B5 (Tutorial), CS309</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>1.2</t>
+          <t>0.8</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>C405</t>
+          <t>C404</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -6238,12 +6238,12 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>L407</t>
+          <t>L408</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>classroom without projector</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -6257,11 +6257,11 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A, B</t>
         </is>
       </c>
       <c r="G15" t="n">
@@ -6274,50 +6274,7 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>0.4</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>L408</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>classroom without projector</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>78</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>Computers</t>
-        </is>
-      </c>
-      <c r="E16" t="n">
-        <v>2</v>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="G16" t="n">
-        <v>1</v>
-      </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>CS303 (Lab)</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>0.4</t>
+          <t>0.8</t>
         </is>
       </c>
     </row>
@@ -6430,22 +6387,22 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>[FAIL]</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>✅</t>
+          <t>[OK]</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>✅</t>
+          <t>[OK]</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>⚠️ PARTIAL</t>
+          <t>[WARN] PARTIAL</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
@@ -6487,22 +6444,22 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>[FAIL]</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>✅</t>
+          <t>[OK]</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>✅</t>
+          <t>[OK]</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>⚠️ PARTIAL</t>
+          <t>[WARN] PARTIAL</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
@@ -6544,22 +6501,22 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>[FAIL]</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>✅</t>
+          <t>[OK]</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>✅</t>
+          <t>[OK]</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>⚠️ PARTIAL</t>
+          <t>[WARN] PARTIAL</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
@@ -6601,22 +6558,22 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>[FAIL]</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>✅</t>
+          <t>[OK]</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>✅</t>
+          <t>[OK]</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>⚠️ PARTIAL</t>
+          <t>[WARN] PARTIAL</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
@@ -6658,22 +6615,22 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>[FAIL]</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>✅</t>
+          <t>[OK]</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>✅</t>
+          <t>[OK]</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>⚠️ PARTIAL</t>
+          <t>[WARN] PARTIAL</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
@@ -6756,7 +6713,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>2025-12-03 12:04</t>
+          <t>2025-12-12 16:59</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -6840,12 +6797,12 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>15/35</t>
+          <t>14/35</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Utilization: 42.9%</t>
+          <t>Utilization: 40.0%</t>
         </is>
       </c>
     </row>
@@ -6884,7 +6841,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>⚠️ NEEDS REVIEW</t>
+          <t>[WARN] NEEDS REVIEW</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -6997,17 +6954,17 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>✅ YES</t>
+          <t>[OK] YES</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>✅ YES</t>
+          <t>[OK] YES</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>✅ YES</t>
+          <t>[OK] YES</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -7054,17 +7011,17 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>✅ YES</t>
+          <t>[OK] YES</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>✅ YES</t>
+          <t>[OK] YES</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>✅ YES</t>
+          <t>[OK] YES</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">

--- a/backend/output_timetables/sem5_CSE_timetable_baskets.xlsx
+++ b/backend/output_timetables/sem5_CSE_timetable_baskets.xlsx
@@ -11,6 +11,9 @@
     <sheet name="Section_B" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="Basket_Allocation" sheetId="3" state="visible" r:id="rId3"/>
     <sheet name="Course_Summary" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Classroom_Utilization" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="Classroom_Allocation" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="Basket_Course_Allocations" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -428,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -437,73 +440,68 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Time Slot</t>
+        </is>
+      </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Thu</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
           <t>Fri</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="inlineStr">
-        <is>
-          <t>09:00-10:30</t>
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>CS309</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>CS309 [C003]</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>CS304 [C203]</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>CS309</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>CS309</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
         <is>
           <t>CS303</t>
         </is>
       </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="inlineStr">
-        <is>
-          <t>10:30-12:00</t>
-        </is>
-      </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>CS303</t>
+          <t>CS303 [C001]</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -518,170 +516,140 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
+          <t>Free</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>LUNCH BREAK</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>LUNCH BREAK</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>LUNCH BREAK</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>LUNCH BREAK</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>LUNCH BREAK</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
           <t>CS304</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>CS304</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>12:00-13:00</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>LUNCH BREAK</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>LUNCH BREAK</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>LUNCH BREAK</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>LUNCH BREAK</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>LUNCH BREAK</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="inlineStr">
-        <is>
-          <t>13:00-14:30</t>
-        </is>
-      </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>ELECTIVE_B4</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>ELECTIVE_B4</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B4</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>CS303 (Lab)</t>
-        </is>
-      </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
-        <is>
-          <t>14:30-15:30</t>
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>CS309 (Tutorial)</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>CS304 (Tutorial) [C001]</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B4 (Tutorial)</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5 (Tutorial)</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>CS303 (Lab) [L405]</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
         <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B4 (Tutorial)</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B5 (Tutorial)</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>CS303 (Lab)</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="inlineStr">
-        <is>
-          <t>15:30-17:00</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B5</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B5</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>CS303 (Tutorial)</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>CS303 (Lab) [L405]</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
         <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>Free</t>
         </is>
       </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>17:00-18:00</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>CS309 (Tutorial)</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>CS304 (Tutorial)</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>CS303 (Tutorial)</t>
-        </is>
-      </c>
       <c r="E8" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
         <is>
           <t>Free</t>
         </is>
@@ -698,7 +666,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -707,251 +675,216 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Time Slot</t>
+        </is>
+      </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Thu</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
           <t>Fri</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="inlineStr">
-        <is>
-          <t>09:00-10:30</t>
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>CS309</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>CS309 [C101]</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>CS304 [C202]</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>CS303</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>CS303 [C101]</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>LUNCH BREAK</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>LUNCH BREAK</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>LUNCH BREAK</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>LUNCH BREAK</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>LUNCH BREAK</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
           <t>CS304</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B4</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
         <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>CS304</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B4</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
         <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>CS309 (Tutorial)</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>CS304 (Tutorial) [C101]</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B4 (Tutorial)</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5 (Tutorial)</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
         <is>
           <t>Free</t>
         </is>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="1" t="inlineStr">
-        <is>
-          <t>10:30-12:00</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>CS303 (Lab) [C202]</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
         <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>CS303</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>CS303 (Tutorial)</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>CS303 (Lab) [C202]</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
         <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>CS309</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>12:00-13:00</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>LUNCH BREAK</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>LUNCH BREAK</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>LUNCH BREAK</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>LUNCH BREAK</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>LUNCH BREAK</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="inlineStr">
-        <is>
-          <t>13:00-14:30</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>CS303 (Lab)</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B4</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>CS309</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B4</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>Free</t>
         </is>
       </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="inlineStr">
-        <is>
-          <t>14:30-15:30</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>CS303 (Lab)</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>CS303 (Tutorial)</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B4 (Tutorial)</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B5 (Tutorial)</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="inlineStr">
-        <is>
-          <t>15:30-17:00</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B5</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B5</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>CS303</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>17:00-18:00</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>CS309 (Tutorial)</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>CS304 (Tutorial)</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
       <c r="E8" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
         <is>
           <t>Free</t>
         </is>
@@ -2576,4 +2509,5719 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H37"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Room Number</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Type</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Capacity</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Weekly Hours (Timetable)</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Daily Avg Hours (Timetable)</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Exam Sessions</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Utilization Rate (%)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Facilities</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>C001</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>3</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="H2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>C002</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>C003</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>135</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>C101</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>11.25</v>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>C102</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>C103</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>library</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>nil</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Computers, Books</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>C104</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>L105</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Hardware Lab</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Equipment</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>L106</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Software Lab</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Computers</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>L107</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Software Lab</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Computers</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>C201</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Examination room</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>nil</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>0</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Tables, Chairs</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>C202</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" t="n">
+        <v>11.25</v>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>C203</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0</v>
+      </c>
+      <c r="G15" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>C204</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>0</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0</v>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>C205</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>0</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>L206</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Hardware Lab</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>0</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0</v>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>Equipment</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>L207</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Software Lab</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
+        <v>0</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0</v>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>Computers</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>L208</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Software Lab</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>Computers</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>C203</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D21" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0</v>
+      </c>
+      <c r="G21" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>C301</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Physics Lab</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>nil</t>
+        </is>
+      </c>
+      <c r="D22" t="n">
+        <v>0</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0</v>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>Physics Equipment</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>C302</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D23" t="n">
+        <v>0</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0</v>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>C303</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D24" t="n">
+        <v>0</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0</v>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>C304</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D25" t="n">
+        <v>0</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0</v>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>C305</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D26" t="n">
+        <v>0</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0</v>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>C306</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>EMPTY</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr"/>
+      <c r="D27" t="n">
+        <v>0</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0</v>
+      </c>
+      <c r="H27" t="inlineStr"/>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>C307</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>RESEARCH LAB</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D28" t="n">
+        <v>0</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0</v>
+      </c>
+      <c r="H28" t="inlineStr"/>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>C308</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>RESEARCH LAB</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D29" t="n">
+        <v>0</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0</v>
+      </c>
+      <c r="H29" t="inlineStr"/>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>L401</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>EMPTY</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>nil</t>
+        </is>
+      </c>
+      <c r="D30" t="n">
+        <v>0</v>
+      </c>
+      <c r="E30" t="n">
+        <v>0</v>
+      </c>
+      <c r="F30" t="n">
+        <v>0</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0</v>
+      </c>
+      <c r="H30" t="inlineStr"/>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>L402</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="D31" t="n">
+        <v>0</v>
+      </c>
+      <c r="E31" t="n">
+        <v>0</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0</v>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>L403</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="D32" t="n">
+        <v>0</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0</v>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>L404</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="D33" t="n">
+        <v>0</v>
+      </c>
+      <c r="E33" t="n">
+        <v>0</v>
+      </c>
+      <c r="F33" t="n">
+        <v>0</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0</v>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>L405</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="D34" t="n">
+        <v>3</v>
+      </c>
+      <c r="E34" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="F34" t="n">
+        <v>0</v>
+      </c>
+      <c r="G34" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>L406</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="D35" t="n">
+        <v>0</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0</v>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>L407</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="D36" t="n">
+        <v>0</v>
+      </c>
+      <c r="E36" t="n">
+        <v>0</v>
+      </c>
+      <c r="F36" t="n">
+        <v>0</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0</v>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>L408</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="D37" t="n">
+        <v>0</v>
+      </c>
+      <c r="E37" t="n">
+        <v>0</v>
+      </c>
+      <c r="F37" t="n">
+        <v>0</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0</v>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:M63"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Semester</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Branch</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Section</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Day</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Time Slot</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Room Type</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Capacity</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Facilities</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Conflict</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Allocation Type</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Basket</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>room</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>course</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>CS309</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>135</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="I2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>C003</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>CS309</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>5</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>CS303</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr"/>
+      <c r="I3" t="b">
+        <v>0</v>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>C001</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>CS303</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>5</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>CS309 (Tutorial)</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr"/>
+      <c r="I4" t="b">
+        <v>0</v>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>C001</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>CS304 (Tutorial)</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>5</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="I5" t="b">
+        <v>0</v>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>L405</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>CS303 (Lab)</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>CS303 (Tutorial)</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="I6" t="b">
+        <v>0</v>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>L405</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>CS303 (Lab)</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>CS309</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="I7" t="b">
+        <v>0</v>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>C203</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>CS304</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>5</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>CS304</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="I8" t="b">
+        <v>0</v>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B4</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>C302</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>CS463</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>5</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>CS304</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="I9" t="b">
+        <v>0</v>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B4</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>C303</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>CS308</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>5</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>CS304</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="I10" t="b">
+        <v>0</v>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B4</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>C304</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>DS301</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>5</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>CS304</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="I11" t="b">
+        <v>0</v>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B4</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>C305</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>CS366</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>5</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>ELECTIVE</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="I12" t="b">
+        <v>0</v>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>L405</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>CS303 (Lab)</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>5</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>CS309 (Tutorial)</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="I13" t="b">
+        <v>0</v>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B4</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>C302</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>CS463</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>5</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>CS309 (Tutorial)</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="I14" t="b">
+        <v>0</v>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B4</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>C303</t>
+        </is>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>CS308</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>5</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>CS309 (Tutorial)</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="I15" t="b">
+        <v>0</v>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B4</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>C304</t>
+        </is>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>DS301</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>5</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>CS309 (Tutorial)</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="I16" t="b">
+        <v>0</v>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B4</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>C305</t>
+        </is>
+      </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>CS366</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>5</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>ELECTIVE</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="I17" t="b">
+        <v>0</v>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>C304</t>
+        </is>
+      </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>DS359</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>5</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>ELECTIVE</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="I18" t="b">
+        <v>0</v>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>C305</t>
+        </is>
+      </c>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>EC355</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>5</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>ELECTIVE</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="I19" t="b">
+        <v>0</v>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>C102</t>
+        </is>
+      </c>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>EC364</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>5</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>ELECTIVE</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="I20" t="b">
+        <v>0</v>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>C104</t>
+        </is>
+      </c>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>CS352</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>5</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>ELECTIVE</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="I21" t="b">
+        <v>0</v>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>C101</t>
+        </is>
+      </c>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>ASD352</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>5</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>ELECTIVE</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr"/>
+      <c r="I22" t="b">
+        <v>0</v>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>C001</t>
+        </is>
+      </c>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>EC365</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>5</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>CS304</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="I23" t="b">
+        <v>0</v>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B4</t>
+        </is>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>C302</t>
+        </is>
+      </c>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>CS463</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>5</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>CS304</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="I24" t="b">
+        <v>0</v>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B4</t>
+        </is>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>C303</t>
+        </is>
+      </c>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>CS308</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>5</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>CS304</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="I25" t="b">
+        <v>0</v>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B4</t>
+        </is>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>C304</t>
+        </is>
+      </c>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>DS301</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>5</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>CS304</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="I26" t="b">
+        <v>0</v>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B4</t>
+        </is>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>C305</t>
+        </is>
+      </c>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>CS366</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>5</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>CS309 (Tutorial)</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="I27" t="b">
+        <v>0</v>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>C304</t>
+        </is>
+      </c>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>DS359</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>5</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>CS309 (Tutorial)</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="I28" t="b">
+        <v>0</v>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>C305</t>
+        </is>
+      </c>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>EC355</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>5</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>CS309 (Tutorial)</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="I29" t="b">
+        <v>0</v>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>C102</t>
+        </is>
+      </c>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>EC364</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>5</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>CS309 (Tutorial)</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="I30" t="b">
+        <v>0</v>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>C104</t>
+        </is>
+      </c>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>CS352</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>5</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>CS309 (Tutorial)</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="I31" t="b">
+        <v>0</v>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>C101</t>
+        </is>
+      </c>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>ASD352</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>5</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>CS309 (Tutorial)</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr"/>
+      <c r="I32" t="b">
+        <v>0</v>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>C001</t>
+        </is>
+      </c>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>EC365</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>5</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>CS309</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="I33" t="b">
+        <v>0</v>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="K33" t="inlineStr"/>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>C101</t>
+        </is>
+      </c>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>CS309</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>5</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>CS303</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="I34" t="b">
+        <v>0</v>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="K34" t="inlineStr"/>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>C101</t>
+        </is>
+      </c>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>CS303</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>5</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>CS309 (Tutorial)</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="I35" t="b">
+        <v>0</v>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="K35" t="inlineStr"/>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>C101</t>
+        </is>
+      </c>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>CS304 (Tutorial)</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>5</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="I36" t="b">
+        <v>0</v>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="K36" t="inlineStr"/>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>C202</t>
+        </is>
+      </c>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>CS303 (Lab)</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>5</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>CS303 (Tutorial)</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="I37" t="b">
+        <v>0</v>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="K37" t="inlineStr"/>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>C202</t>
+        </is>
+      </c>
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>CS303 (Lab)</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>5</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>CS309</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="I38" t="b">
+        <v>0</v>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="K38" t="inlineStr"/>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>C202</t>
+        </is>
+      </c>
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>CS304</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>5</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>CS304</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="I39" t="b">
+        <v>0</v>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B4</t>
+        </is>
+      </c>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>C002</t>
+        </is>
+      </c>
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>CS463</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>5</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>CS304</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>135</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="I40" t="b">
+        <v>0</v>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B4</t>
+        </is>
+      </c>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>C003</t>
+        </is>
+      </c>
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>CS308</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>5</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>CS304</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="I41" t="b">
+        <v>0</v>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B4</t>
+        </is>
+      </c>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>DS301</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>5</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>CS304</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="I42" t="b">
+        <v>0</v>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B4</t>
+        </is>
+      </c>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>L402</t>
+        </is>
+      </c>
+      <c r="M42" t="inlineStr">
+        <is>
+          <t>CS366</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>5</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>ELECTIVE</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="I43" t="b">
+        <v>0</v>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K43" t="inlineStr"/>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>C202</t>
+        </is>
+      </c>
+      <c r="M43" t="inlineStr">
+        <is>
+          <t>CS303 (Lab)</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>5</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>CS309 (Tutorial)</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="I44" t="b">
+        <v>0</v>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B4</t>
+        </is>
+      </c>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>C002</t>
+        </is>
+      </c>
+      <c r="M44" t="inlineStr">
+        <is>
+          <t>CS463</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>5</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>CS309 (Tutorial)</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>135</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="I45" t="b">
+        <v>0</v>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B4</t>
+        </is>
+      </c>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>C003</t>
+        </is>
+      </c>
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>CS308</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>5</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>CS309 (Tutorial)</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="I46" t="b">
+        <v>0</v>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B4</t>
+        </is>
+      </c>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="M46" t="inlineStr">
+        <is>
+          <t>DS301</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>5</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>CS309 (Tutorial)</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="I47" t="b">
+        <v>0</v>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B4</t>
+        </is>
+      </c>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>L402</t>
+        </is>
+      </c>
+      <c r="M47" t="inlineStr">
+        <is>
+          <t>CS366</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>5</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>ELECTIVE</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="I48" t="b">
+        <v>0</v>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>L405</t>
+        </is>
+      </c>
+      <c r="M48" t="inlineStr">
+        <is>
+          <t>DS359</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>5</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>ELECTIVE</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="I49" t="b">
+        <v>0</v>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>L406</t>
+        </is>
+      </c>
+      <c r="M49" t="inlineStr">
+        <is>
+          <t>EC355</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>5</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>ELECTIVE</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="I50" t="b">
+        <v>0</v>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>L407</t>
+        </is>
+      </c>
+      <c r="M50" t="inlineStr">
+        <is>
+          <t>EC364</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>5</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>ELECTIVE</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="I51" t="b">
+        <v>0</v>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>L408</t>
+        </is>
+      </c>
+      <c r="M51" t="inlineStr">
+        <is>
+          <t>CS352</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>5</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>ELECTIVE</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="I52" t="b">
+        <v>0</v>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="M52" t="inlineStr">
+        <is>
+          <t>ASD352</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>5</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>ELECTIVE</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="I53" t="b">
+        <v>0</v>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="M53" t="inlineStr">
+        <is>
+          <t>EC365</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>5</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>CS304</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="I54" t="b">
+        <v>0</v>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B4</t>
+        </is>
+      </c>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>C002</t>
+        </is>
+      </c>
+      <c r="M54" t="inlineStr">
+        <is>
+          <t>CS463</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>5</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>CS304</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>135</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="I55" t="b">
+        <v>0</v>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B4</t>
+        </is>
+      </c>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>C003</t>
+        </is>
+      </c>
+      <c r="M55" t="inlineStr">
+        <is>
+          <t>CS308</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>5</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>CS304</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="I56" t="b">
+        <v>0</v>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B4</t>
+        </is>
+      </c>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="M56" t="inlineStr">
+        <is>
+          <t>DS301</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>5</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>CS304</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="I57" t="b">
+        <v>0</v>
+      </c>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B4</t>
+        </is>
+      </c>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>L402</t>
+        </is>
+      </c>
+      <c r="M57" t="inlineStr">
+        <is>
+          <t>CS366</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>5</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>CS309 (Tutorial)</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="I58" t="b">
+        <v>0</v>
+      </c>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>L405</t>
+        </is>
+      </c>
+      <c r="M58" t="inlineStr">
+        <is>
+          <t>DS359</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>5</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>CS309 (Tutorial)</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="I59" t="b">
+        <v>0</v>
+      </c>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>L406</t>
+        </is>
+      </c>
+      <c r="M59" t="inlineStr">
+        <is>
+          <t>EC355</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>5</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>CS309 (Tutorial)</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="I60" t="b">
+        <v>0</v>
+      </c>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>L407</t>
+        </is>
+      </c>
+      <c r="M60" t="inlineStr">
+        <is>
+          <t>EC364</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>5</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>CS309 (Tutorial)</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="I61" t="b">
+        <v>0</v>
+      </c>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>L408</t>
+        </is>
+      </c>
+      <c r="M61" t="inlineStr">
+        <is>
+          <t>CS352</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>5</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>CS309 (Tutorial)</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="I62" t="b">
+        <v>0</v>
+      </c>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="M62" t="inlineStr">
+        <is>
+          <t>ASD352</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>5</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>CS309 (Tutorial)</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="I63" t="b">
+        <v>0</v>
+      </c>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="M63" t="inlineStr">
+        <is>
+          <t>EC365</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Basket Name</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Course</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Allocated Rooms</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B4</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>CS463</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>C002, C302</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B4</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>CS308</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>C003, C303</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B4</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>DS301</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>C004, C304</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B4</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>CS366</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>C305, L402</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B4</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>CS463</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>C002, C302</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B4</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>CS308</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>C003, C303</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B4</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>DS301</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>C004, C304</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B4</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>CS366</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>C305, L402</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>DS359</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>C304, L405</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>EC355</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>C305, L406</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>EC364</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>C102, L407</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>CS352</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>C104, L408</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>ASD352</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>C004, C101</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>EC365</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>C001, C004</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>DS359</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>C304, L405</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>EC355</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>C305, L406</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>EC364</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>C102, L407</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>CS352</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>C104, L408</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>ASD352</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>C004, C101</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>EC365</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>C001, C004</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>CS463</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>C002, C302</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>CS308</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>C003, C303</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>DS301</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>C004, C304</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>EC368</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr"/>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>CS366</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>C305, L402</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>DS359</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>C304, L405</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>EC355</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>C305, L406</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>CS352</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>C104, L408</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>DE351</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr"/>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>EC358</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/backend/output_timetables/sem5_CSE_timetable_baskets.xlsx
+++ b/backend/output_timetables/sem5_CSE_timetable_baskets.xlsx
@@ -485,27 +485,27 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>MINOR: Generative Ai [C101]</t>
+          <t>MINOR: Generative Ai [C202]</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>MINOR: Cybersecurity [C101]</t>
+          <t>MINOR: Cybersecurity [C202]</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>MINOR: Design [C101]</t>
+          <t>MINOR: Design [C202]</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>MINOR: VLSI [C101]</t>
+          <t>MINOR: VLSI [C202]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>MINOR: DSAI [C101]</t>
+          <t>MINOR: DSAI [C202]</t>
         </is>
       </c>
     </row>
@@ -517,17 +517,17 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>CS309 [C004]</t>
+          <t>CS309 [C202]</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>CS309 [C203]</t>
+          <t>CS309 [C202]</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>CS304 [C004]</t>
+          <t>CS304 [C202]</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -549,12 +549,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>CS303 [C203]</t>
+          <t>CS303 [C202]</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>CS303 [C203]</t>
+          <t>CS303 [C202]</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -613,7 +613,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>CS304 [C305]</t>
+          <t>CS304 [C202]</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -645,12 +645,12 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>CS309 (Tutorial) [C101]</t>
+          <t>CS309 (Tutorial) [C202]</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>CS304 (Tutorial) [C204]</t>
+          <t>CS304 (Tutorial) [C202]</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -709,7 +709,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>CS303 (Tutorial) [C201]</t>
+          <t>CS303 (Tutorial) [C202]</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -741,27 +741,27 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>MINOR: VLSI [C101]</t>
+          <t>MINOR: VLSI [C202]</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>MINOR: DSAI [C101]</t>
+          <t>MINOR: DSAI [C202]</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>MINOR: Generative Ai [C101]</t>
+          <t>MINOR: Generative Ai [C202]</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>MINOR: Cybersecurity [C101]</t>
+          <t>MINOR: Cybersecurity [C202]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>MINOR: Design [C101]</t>
+          <t>MINOR: Design [C202]</t>
         </is>
       </c>
     </row>
@@ -1220,7 +1220,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>C003, C004, L403</t>
+          <t>C001, C102, C204</t>
         </is>
       </c>
     </row>
@@ -1237,7 +1237,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>C002, C003, L404</t>
+          <t>C002, C104, C205</t>
         </is>
       </c>
     </row>
@@ -1254,7 +1254,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>C002, C004, L405</t>
+          <t>C004, C302</t>
         </is>
       </c>
     </row>
@@ -1271,7 +1271,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>C001, L406</t>
+          <t>C101, C303</t>
         </is>
       </c>
     </row>
@@ -1288,7 +1288,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>C003, C004</t>
+          <t>C001, C101, C104, C303</t>
         </is>
       </c>
     </row>
@@ -1305,7 +1305,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>C002, C003</t>
+          <t>C002, C102, C304</t>
         </is>
       </c>
     </row>
@@ -1322,7 +1322,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>C002, C003, C004, C101</t>
+          <t>C004, C205, C305</t>
         </is>
       </c>
     </row>
@@ -1339,7 +1339,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>C001, C003</t>
+          <t>C003, C101, C204, C303</t>
         </is>
       </c>
     </row>
@@ -1356,7 +1356,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>C001, C101</t>
+          <t>C205, C304, L404, L407</t>
         </is>
       </c>
     </row>
@@ -1373,7 +1373,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C302, C305, L405</t>
         </is>
       </c>
     </row>
@@ -1390,7 +1390,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>C003, C004, L403</t>
+          <t>C001, C102, C204</t>
         </is>
       </c>
     </row>
@@ -1407,7 +1407,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>C002, C003, L404</t>
+          <t>C002, C104, C205</t>
         </is>
       </c>
     </row>
@@ -1424,7 +1424,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>C002, C004, L405</t>
+          <t>C004, C302</t>
         </is>
       </c>
     </row>
@@ -1454,7 +1454,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>C001, L406</t>
+          <t>C101, C303</t>
         </is>
       </c>
     </row>
@@ -1471,7 +1471,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>C003, C004</t>
+          <t>C001, C101, C104, C303</t>
         </is>
       </c>
     </row>
@@ -1488,7 +1488,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>C002, C003</t>
+          <t>C002, C102, C304</t>
         </is>
       </c>
     </row>
@@ -1505,7 +1505,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>C001, C003</t>
+          <t>C003, C101, C204, C303</t>
         </is>
       </c>
     </row>
@@ -1676,7 +1676,7 @@
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
@@ -1716,17 +1716,17 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I3" t="b">
@@ -1740,7 +1740,7 @@
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
@@ -1790,7 +1790,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I4" t="b">
@@ -1804,7 +1804,7 @@
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr">
         <is>
-          <t>C203</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
@@ -1854,7 +1854,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I5" t="b">
@@ -1868,7 +1868,7 @@
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr">
         <is>
-          <t>C305</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
@@ -1932,7 +1932,7 @@
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
@@ -1972,17 +1972,17 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Examination room</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>nil</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Tables, Chairs</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I7" t="b">
@@ -1996,7 +1996,7 @@
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr">
         <is>
-          <t>C201</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
@@ -2060,7 +2060,7 @@
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
@@ -2124,7 +2124,7 @@
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
@@ -2174,7 +2174,7 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I10" t="b">
@@ -2188,7 +2188,7 @@
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr">
         <is>
-          <t>C203</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
@@ -2238,7 +2238,7 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I11" t="b">
@@ -2252,7 +2252,7 @@
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr">
         <is>
-          <t>C203</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
@@ -2302,7 +2302,7 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I12" t="b">
@@ -2316,7 +2316,7 @@
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr">
         <is>
-          <t>C204</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
@@ -2508,7 +2508,7 @@
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="M15" t="inlineStr">
@@ -2572,7 +2572,7 @@
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="M16" t="inlineStr">
@@ -2612,17 +2612,17 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I17" t="b">
@@ -2636,7 +2636,7 @@
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="M17" t="inlineStr">
@@ -2700,7 +2700,7 @@
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="M18" t="inlineStr">
@@ -2764,7 +2764,7 @@
       <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="M19" t="inlineStr">
@@ -2828,7 +2828,7 @@
       <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="M20" t="inlineStr">
@@ -2892,7 +2892,7 @@
       <c r="K21" t="inlineStr"/>
       <c r="L21" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="M21" t="inlineStr">
@@ -2956,7 +2956,7 @@
       <c r="K22" t="inlineStr"/>
       <c r="L22" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="M22" t="inlineStr">
@@ -2996,17 +2996,17 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I23" t="b">
@@ -3024,7 +3024,7 @@
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="M23" t="inlineStr">
@@ -3132,17 +3132,17 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>240</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="I25" t="b">
@@ -3160,7 +3160,7 @@
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>C003</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M25" t="inlineStr">
@@ -3200,15 +3200,19 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="H26" t="inlineStr"/>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
       <c r="I26" t="b">
         <v>0</v>
       </c>
@@ -3224,7 +3228,7 @@
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C204</t>
         </is>
       </c>
       <c r="M26" t="inlineStr">
@@ -3269,12 +3273,12 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>80</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="I27" t="b">
@@ -3292,7 +3296,7 @@
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>L407</t>
         </is>
       </c>
       <c r="M27" t="inlineStr">
@@ -3360,7 +3364,7 @@
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C302</t>
         </is>
       </c>
       <c r="M28" t="inlineStr">
@@ -3405,12 +3409,12 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I29" t="b">
@@ -3428,7 +3432,7 @@
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>L403</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="M29" t="inlineStr">
@@ -3473,12 +3477,12 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I30" t="b">
@@ -3496,7 +3500,7 @@
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>L404</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="M30" t="inlineStr">
@@ -3536,17 +3540,17 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>240</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="I31" t="b">
@@ -3564,7 +3568,7 @@
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>L405</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M31" t="inlineStr">
@@ -3609,12 +3613,12 @@
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I32" t="b">
@@ -3632,7 +3636,7 @@
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>L406</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="M32" t="inlineStr">
@@ -3677,14 +3681,10 @@
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>135</t>
-        </is>
-      </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr"/>
       <c r="I33" t="b">
         <v>0</v>
       </c>
@@ -3700,7 +3700,7 @@
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>C003</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="M33" t="inlineStr">
@@ -3876,15 +3876,19 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="H36" t="inlineStr"/>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
       <c r="I36" t="b">
         <v>0</v>
       </c>
@@ -3900,7 +3904,7 @@
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="M36" t="inlineStr">
@@ -3940,17 +3944,17 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I37" t="b">
@@ -3968,7 +3972,7 @@
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="M37" t="inlineStr">
@@ -4076,17 +4080,17 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>240</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="I39" t="b">
@@ -4104,7 +4108,7 @@
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>C003</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M39" t="inlineStr">
@@ -4144,15 +4148,19 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="H40" t="inlineStr"/>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
       <c r="I40" t="b">
         <v>0</v>
       </c>
@@ -4168,7 +4176,7 @@
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C204</t>
         </is>
       </c>
       <c r="M40" t="inlineStr">
@@ -4213,12 +4221,12 @@
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>80</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="I41" t="b">
@@ -4236,7 +4244,7 @@
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>L407</t>
         </is>
       </c>
       <c r="M41" t="inlineStr">
@@ -4304,7 +4312,7 @@
       </c>
       <c r="L42" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C302</t>
         </is>
       </c>
       <c r="M42" t="inlineStr">
@@ -4349,14 +4357,10 @@
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>135</t>
-        </is>
-      </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr"/>
       <c r="I43" t="b">
         <v>0</v>
       </c>
@@ -4372,7 +4376,7 @@
       </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>C003</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="M43" t="inlineStr">
@@ -4548,15 +4552,19 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="H46" t="inlineStr"/>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
       <c r="I46" t="b">
         <v>0</v>
       </c>
@@ -4572,7 +4580,7 @@
       </c>
       <c r="L46" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="M46" t="inlineStr">
@@ -4612,19 +4620,15 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr"/>
       <c r="I47" t="b">
         <v>0</v>
       </c>
@@ -4640,7 +4644,7 @@
       </c>
       <c r="L47" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="M47" t="inlineStr">
@@ -4748,17 +4752,17 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>240</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="I49" t="b">
@@ -4776,7 +4780,7 @@
       </c>
       <c r="L49" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M49" t="inlineStr">
@@ -4816,12 +4820,12 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
@@ -4844,7 +4848,7 @@
       </c>
       <c r="L50" t="inlineStr">
         <is>
-          <t>C003</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="M50" t="inlineStr">
@@ -4884,15 +4888,19 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="H51" t="inlineStr"/>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
       <c r="I51" t="b">
         <v>0</v>
       </c>
@@ -4908,7 +4916,7 @@
       </c>
       <c r="L51" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C205</t>
         </is>
       </c>
       <c r="M51" t="inlineStr">
@@ -4976,7 +4984,7 @@
       </c>
       <c r="L52" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C302</t>
         </is>
       </c>
       <c r="M52" t="inlineStr">
@@ -5040,7 +5048,7 @@
       <c r="K53" t="inlineStr"/>
       <c r="L53" t="inlineStr">
         <is>
-          <t>C205</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="M53" t="inlineStr">
@@ -5080,17 +5088,17 @@
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="I54" t="b">
@@ -5104,7 +5112,7 @@
       <c r="K54" t="inlineStr"/>
       <c r="L54" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="M54" t="inlineStr">
@@ -5168,7 +5176,7 @@
       <c r="K55" t="inlineStr"/>
       <c r="L55" t="inlineStr">
         <is>
-          <t>C204</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="M55" t="inlineStr">
@@ -5213,7 +5221,7 @@
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
@@ -5232,7 +5240,7 @@
       <c r="K56" t="inlineStr"/>
       <c r="L56" t="inlineStr">
         <is>
-          <t>L402</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="M56" t="inlineStr">
@@ -5296,7 +5304,7 @@
       <c r="K57" t="inlineStr"/>
       <c r="L57" t="inlineStr">
         <is>
-          <t>C205</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="M57" t="inlineStr">
@@ -5346,7 +5354,7 @@
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="I58" t="b">
@@ -5360,7 +5368,7 @@
       <c r="K58" t="inlineStr"/>
       <c r="L58" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="M58" t="inlineStr">
@@ -5424,7 +5432,7 @@
       <c r="K59" t="inlineStr"/>
       <c r="L59" t="inlineStr">
         <is>
-          <t>C205</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="M59" t="inlineStr">
@@ -5488,7 +5496,7 @@
       <c r="K60" t="inlineStr"/>
       <c r="L60" t="inlineStr">
         <is>
-          <t>C205</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="M60" t="inlineStr">
@@ -5552,7 +5560,7 @@
       <c r="K61" t="inlineStr"/>
       <c r="L61" t="inlineStr">
         <is>
-          <t>C303</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="M61" t="inlineStr">
@@ -5616,7 +5624,7 @@
       <c r="K62" t="inlineStr"/>
       <c r="L62" t="inlineStr">
         <is>
-          <t>C303</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="M62" t="inlineStr">
@@ -5680,7 +5688,7 @@
       <c r="K63" t="inlineStr"/>
       <c r="L63" t="inlineStr">
         <is>
-          <t>C303</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="M63" t="inlineStr">
@@ -5872,7 +5880,7 @@
       <c r="K66" t="inlineStr"/>
       <c r="L66" t="inlineStr">
         <is>
-          <t>C205</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="M66" t="inlineStr">
@@ -5936,7 +5944,7 @@
       <c r="K67" t="inlineStr"/>
       <c r="L67" t="inlineStr">
         <is>
-          <t>C205</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="M67" t="inlineStr">
@@ -5976,17 +5984,17 @@
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="I68" t="b">
@@ -6000,7 +6008,7 @@
       <c r="K68" t="inlineStr"/>
       <c r="L68" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="M68" t="inlineStr">
@@ -6064,7 +6072,7 @@
       <c r="K69" t="inlineStr"/>
       <c r="L69" t="inlineStr">
         <is>
-          <t>C205</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="M69" t="inlineStr">
@@ -6128,7 +6136,7 @@
       <c r="K70" t="inlineStr"/>
       <c r="L70" t="inlineStr">
         <is>
-          <t>C205</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="M70" t="inlineStr">
@@ -6192,7 +6200,7 @@
       <c r="K71" t="inlineStr"/>
       <c r="L71" t="inlineStr">
         <is>
-          <t>C205</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="M71" t="inlineStr">
@@ -6256,7 +6264,7 @@
       <c r="K72" t="inlineStr"/>
       <c r="L72" t="inlineStr">
         <is>
-          <t>C205</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="M72" t="inlineStr">
@@ -6320,7 +6328,7 @@
       <c r="K73" t="inlineStr"/>
       <c r="L73" t="inlineStr">
         <is>
-          <t>C205</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="M73" t="inlineStr">
@@ -6360,17 +6368,17 @@
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I74" t="b">
@@ -6388,7 +6396,7 @@
       </c>
       <c r="L74" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="M74" t="inlineStr">
@@ -6428,12 +6436,12 @@
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
@@ -6456,7 +6464,7 @@
       </c>
       <c r="L75" t="inlineStr">
         <is>
-          <t>C003</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="M75" t="inlineStr">
@@ -6496,17 +6504,17 @@
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="I76" t="b">
@@ -6524,7 +6532,7 @@
       </c>
       <c r="L76" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>C205</t>
         </is>
       </c>
       <c r="M76" t="inlineStr">
@@ -6564,15 +6572,19 @@
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="H77" t="inlineStr"/>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
       <c r="I77" t="b">
         <v>0</v>
       </c>
@@ -6588,7 +6600,7 @@
       </c>
       <c r="L77" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C303</t>
         </is>
       </c>
       <c r="M77" t="inlineStr">
@@ -6638,7 +6650,7 @@
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="I78" t="b">
@@ -6656,7 +6668,7 @@
       </c>
       <c r="L78" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C304</t>
         </is>
       </c>
       <c r="M78" t="inlineStr">
@@ -6706,7 +6718,7 @@
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="I79" t="b">
@@ -6724,7 +6736,7 @@
       </c>
       <c r="L79" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C305</t>
         </is>
       </c>
       <c r="M79" t="inlineStr">
@@ -6764,17 +6776,17 @@
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="I80" t="b">
@@ -6792,7 +6804,7 @@
       </c>
       <c r="L80" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C204</t>
         </is>
       </c>
       <c r="M80" t="inlineStr">
@@ -6832,17 +6844,17 @@
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="I81" t="b">
@@ -6860,7 +6872,7 @@
       </c>
       <c r="L81" t="inlineStr">
         <is>
-          <t>C003</t>
+          <t>C205</t>
         </is>
       </c>
       <c r="M81" t="inlineStr">
@@ -6900,12 +6912,12 @@
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
@@ -6928,7 +6940,7 @@
       </c>
       <c r="L82" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>C302</t>
         </is>
       </c>
       <c r="M82" t="inlineStr">
@@ -6968,15 +6980,19 @@
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="H83" t="inlineStr"/>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
       <c r="I83" t="b">
         <v>0</v>
       </c>
@@ -6992,7 +7008,7 @@
       </c>
       <c r="L83" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C303</t>
         </is>
       </c>
       <c r="M83" t="inlineStr">
@@ -7032,17 +7048,17 @@
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="I84" t="b">
@@ -7060,7 +7076,7 @@
       </c>
       <c r="L84" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C204</t>
         </is>
       </c>
       <c r="M84" t="inlineStr">
@@ -7100,17 +7116,17 @@
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="I85" t="b">
@@ -7128,7 +7144,7 @@
       </c>
       <c r="L85" t="inlineStr">
         <is>
-          <t>C003</t>
+          <t>C205</t>
         </is>
       </c>
       <c r="M85" t="inlineStr">
@@ -7168,12 +7184,12 @@
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
@@ -7196,7 +7212,7 @@
       </c>
       <c r="L86" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>C302</t>
         </is>
       </c>
       <c r="M86" t="inlineStr">
@@ -7236,15 +7252,19 @@
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="H87" t="inlineStr"/>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
       <c r="I87" t="b">
         <v>0</v>
       </c>
@@ -7260,7 +7280,7 @@
       </c>
       <c r="L87" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C303</t>
         </is>
       </c>
       <c r="M87" t="inlineStr">
@@ -7300,17 +7320,17 @@
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I88" t="b">
@@ -7328,7 +7348,7 @@
       </c>
       <c r="L88" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="M88" t="inlineStr">
@@ -7368,12 +7388,12 @@
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
@@ -7396,7 +7416,7 @@
       </c>
       <c r="L89" t="inlineStr">
         <is>
-          <t>C003</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="M89" t="inlineStr">
@@ -7436,17 +7456,17 @@
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="I90" t="b">
@@ -7464,7 +7484,7 @@
       </c>
       <c r="L90" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>C205</t>
         </is>
       </c>
       <c r="M90" t="inlineStr">
@@ -7504,15 +7524,19 @@
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="H91" t="inlineStr"/>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="H91" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
       <c r="I91" t="b">
         <v>0</v>
       </c>
@@ -7528,7 +7552,7 @@
       </c>
       <c r="L91" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C303</t>
         </is>
       </c>
       <c r="M91" t="inlineStr">
@@ -7578,7 +7602,7 @@
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="I92" t="b">
@@ -7596,7 +7620,7 @@
       </c>
       <c r="L92" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C304</t>
         </is>
       </c>
       <c r="M92" t="inlineStr">
@@ -7646,7 +7670,7 @@
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="I93" t="b">
@@ -7664,7 +7688,7 @@
       </c>
       <c r="L93" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C305</t>
         </is>
       </c>
       <c r="M93" t="inlineStr">
@@ -7704,17 +7728,17 @@
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="I94" t="b">
@@ -7732,7 +7756,7 @@
       </c>
       <c r="L94" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C204</t>
         </is>
       </c>
       <c r="M94" t="inlineStr">
@@ -7772,17 +7796,17 @@
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="I95" t="b">
@@ -7800,7 +7824,7 @@
       </c>
       <c r="L95" t="inlineStr">
         <is>
-          <t>C003</t>
+          <t>C205</t>
         </is>
       </c>
       <c r="M95" t="inlineStr">
@@ -7840,12 +7864,12 @@
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
@@ -7868,7 +7892,7 @@
       </c>
       <c r="L96" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>C302</t>
         </is>
       </c>
       <c r="M96" t="inlineStr">
@@ -7908,15 +7932,19 @@
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="H97" t="inlineStr"/>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="H97" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
       <c r="I97" t="b">
         <v>0</v>
       </c>
@@ -7932,7 +7960,7 @@
       </c>
       <c r="L97" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C303</t>
         </is>
       </c>
       <c r="M97" t="inlineStr">
@@ -7972,17 +8000,17 @@
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="I98" t="b">
@@ -8000,7 +8028,7 @@
       </c>
       <c r="L98" t="inlineStr">
         <is>
-          <t>C003</t>
+          <t>C303</t>
         </is>
       </c>
       <c r="M98" t="inlineStr">
@@ -8040,17 +8068,17 @@
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="I99" t="b">
@@ -8068,7 +8096,7 @@
       </c>
       <c r="L99" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>C304</t>
         </is>
       </c>
       <c r="M99" t="inlineStr">
@@ -8108,17 +8136,17 @@
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="I100" t="b">
@@ -8136,7 +8164,7 @@
       </c>
       <c r="L100" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C305</t>
         </is>
       </c>
       <c r="M100" t="inlineStr">
@@ -8181,10 +8209,14 @@
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="H101" t="inlineStr"/>
+          <t>135</t>
+        </is>
+      </c>
+      <c r="H101" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
       <c r="I101" t="b">
         <v>0</v>
       </c>
@@ -8200,7 +8232,7 @@
       </c>
       <c r="L101" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C003</t>
         </is>
       </c>
       <c r="M101" t="inlineStr">
@@ -8245,12 +8277,12 @@
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>80</t>
         </is>
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="I102" t="b">
@@ -8268,7 +8300,7 @@
       </c>
       <c r="L102" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>L404</t>
         </is>
       </c>
       <c r="M102" t="inlineStr">
@@ -8313,12 +8345,12 @@
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>80</t>
         </is>
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="I103" t="b">
@@ -8336,7 +8368,7 @@
       </c>
       <c r="L103" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>L405</t>
         </is>
       </c>
       <c r="M103" t="inlineStr">
@@ -8526,16 +8558,16 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>1.2</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
@@ -8560,16 +8592,16 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>3.2</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
@@ -8798,16 +8830,16 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="H13" t="inlineStr">
         <is>
@@ -8832,16 +8864,16 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>1</v>
+        <v>27</v>
       </c>
       <c r="E14" t="n">
-        <v>0.2</v>
+        <v>5.4</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>2.5</v>
+        <v>67.5</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
@@ -8866,16 +8898,16 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>4.5</v>
+        <v>27</v>
       </c>
       <c r="E15" t="n">
-        <v>0.9</v>
+        <v>5.4</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>11.25</v>
+        <v>67.5</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
@@ -8900,16 +8932,16 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>6.25</v>
+        <v>0</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
@@ -8934,16 +8966,16 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>3.2</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="H17" t="inlineStr">
         <is>
@@ -9070,16 +9102,16 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>4.5</v>
+        <v>27</v>
       </c>
       <c r="E21" t="n">
-        <v>0.9</v>
+        <v>5.4</v>
       </c>
       <c r="F21" t="n">
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>11.25</v>
+        <v>67.5</v>
       </c>
       <c r="H21" t="inlineStr">
         <is>
@@ -9172,16 +9204,16 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="H24" t="inlineStr">
         <is>
@@ -9240,16 +9272,16 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.75</v>
+        <v>0</v>
       </c>
       <c r="H26" t="inlineStr">
         <is>
@@ -9390,16 +9422,16 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>3.75</v>
+        <v>0</v>
       </c>
       <c r="H31" t="inlineStr">
         <is>
@@ -9670,27 +9702,27 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>MINOR: Generative Ai [C205]</t>
+          <t>MINOR: Generative Ai [C203]</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>MINOR: Cybersecurity [C205]</t>
+          <t>MINOR: Cybersecurity [C203]</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>MINOR: Design [C205]</t>
+          <t>MINOR: Design [C203]</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>MINOR: VLSI [C205]</t>
+          <t>MINOR: VLSI [C203]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>MINOR: DSAI [C205]</t>
+          <t>MINOR: DSAI [C203]</t>
         </is>
       </c>
     </row>
@@ -9702,17 +9734,17 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>CS309 [C004]</t>
+          <t>CS309 [C203]</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>CS309 [C303]</t>
+          <t>CS309 [C203]</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>CS304 [C004]</t>
+          <t>CS304 [C203]</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -9734,12 +9766,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>CS303 [C204]</t>
+          <t>CS303 [C203]</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>CS303 [C303]</t>
+          <t>CS303 [C203]</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -9798,7 +9830,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>CS304 [L402]</t>
+          <t>CS304 [C203]</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -9830,12 +9862,12 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>CS309 (Tutorial) [C205]</t>
+          <t>CS309 (Tutorial) [C203]</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>CS304 (Tutorial) [C303]</t>
+          <t>CS304 (Tutorial) [C203]</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -9894,7 +9926,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>CS303 (Tutorial) [C202]</t>
+          <t>CS303 (Tutorial) [C203]</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -9926,27 +9958,27 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>MINOR: VLSI [C205]</t>
+          <t>MINOR: VLSI [C203]</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>MINOR: DSAI [C205]</t>
+          <t>MINOR: DSAI [C203]</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>MINOR: Generative Ai [C205]</t>
+          <t>MINOR: Generative Ai [C203]</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>MINOR: Cybersecurity [C205]</t>
+          <t>MINOR: Cybersecurity [C203]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>MINOR: Design [C205]</t>
+          <t>MINOR: Design [C203]</t>
         </is>
       </c>
     </row>
@@ -10059,7 +10091,7 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>C101, C203, C004</t>
+          <t>C202</t>
         </is>
       </c>
     </row>
@@ -10106,7 +10138,7 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>C201, C203, L404</t>
+          <t>L405, C202</t>
         </is>
       </c>
     </row>
@@ -10153,7 +10185,7 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>C305, C204, C004</t>
+          <t>C202</t>
         </is>
       </c>
     </row>
@@ -10407,7 +10439,7 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>C303, C205, C004</t>
+          <t>C203</t>
         </is>
       </c>
     </row>
@@ -10454,7 +10486,7 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>C303, C204, C202, L408</t>
+          <t>L402, C203</t>
         </is>
       </c>
     </row>
@@ -10501,7 +10533,7 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>C303, L402, C004</t>
+          <t>C203</t>
         </is>
       </c>
     </row>
@@ -10657,7 +10689,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I13"/>
+  <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10715,50 +10747,50 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>A, B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="G2" t="n">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>CS304, CS309</t>
+          <t>CS304 (Tutorial), MINOR: Cybersecurity, MINOR: VLSI...</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>0.8</t>
+          <t>3.8</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -10773,58 +10805,58 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="E3" t="n">
+        <v>19</v>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="G3" t="n">
         <v>11</v>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="G3" t="n">
-        <v>6</v>
-      </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>CS309 (Tutorial), MINOR: Cybersecurity, MINOR: Design...</t>
+          <t>CS304 (Tutorial), MINOR: Cybersecurity, MINOR: VLSI...</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>2.2</t>
+          <t>3.8</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>C201</t>
+          <t>L402</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Examination room</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>nil</t>
+          <t>80</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Tables, Chairs</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="G4" t="n">
@@ -10832,19 +10864,19 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>CS303 (Tutorial)</t>
+          <t>CS303 (Lab)</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>0.4</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>L405</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -10854,20 +10886,20 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>80</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="G5" t="n">
@@ -10875,354 +10907,10 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>CS303 (Tutorial)</t>
+          <t>CS303 (Lab)</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
-        <is>
-          <t>0.2</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>C203</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>TV</t>
-        </is>
-      </c>
-      <c r="E6" t="n">
-        <v>3</v>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="G6" t="n">
-        <v>2</v>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>CS303, CS309</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>0.6</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>C204</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>TV</t>
-        </is>
-      </c>
-      <c r="E7" t="n">
-        <v>2</v>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>A, B</t>
-        </is>
-      </c>
-      <c r="G7" t="n">
-        <v>2</v>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>CS303, CS304 (Tutorial)</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>0.4</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>C205</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>TV</t>
-        </is>
-      </c>
-      <c r="E8" t="n">
-        <v>11</v>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="G8" t="n">
-        <v>6</v>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>CS309 (Tutorial), MINOR: Cybersecurity, MINOR: Design...</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>2.2</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>C303</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>TV</t>
-        </is>
-      </c>
-      <c r="E9" t="n">
-        <v>3</v>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="G9" t="n">
-        <v>3</v>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>CS303, CS304 (Tutorial), CS309</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>0.6</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>C305</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>TV</t>
-        </is>
-      </c>
-      <c r="E10" t="n">
-        <v>1</v>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="G10" t="n">
-        <v>1</v>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>CS304</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>0.2</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>L402</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>80</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>TV</t>
-        </is>
-      </c>
-      <c r="E11" t="n">
-        <v>1</v>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="G11" t="n">
-        <v>1</v>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>CS304</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>0.2</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>L404</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>80</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>TV</t>
-        </is>
-      </c>
-      <c r="E12" t="n">
-        <v>2</v>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="G12" t="n">
-        <v>1</v>
-      </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>CS303 (Lab)</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>0.4</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>L408</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>80</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>TV</t>
-        </is>
-      </c>
-      <c r="E13" t="n">
-        <v>2</v>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="G13" t="n">
-        <v>1</v>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>CS303 (Lab)</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
         <is>
           <t>0.4</t>
         </is>
@@ -11663,7 +11351,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>2026-01-20 00:15</t>
+          <t>2026-01-23 00:22</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -11747,12 +11435,12 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>12/36</t>
+          <t>4/36</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Utilization: 33.3%</t>
+          <t>Utilization: 11.1%</t>
         </is>
       </c>
     </row>

--- a/backend/output_timetables/sem5_CSE_timetable_baskets.xlsx
+++ b/backend/output_timetables/sem5_CSE_timetable_baskets.xlsx
@@ -528,7 +528,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>CS303 [C101]</t>
+          <t>CS303 [C302]</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -763,22 +763,22 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>MINOR: Cybersecurity [C004]</t>
+          <t>MINOR: Cybersecurity [C001]</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>MINOR: Design [C004]</t>
+          <t>MINOR: Design [C001]</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>MINOR: VLSI [C004]</t>
+          <t>MINOR: VLSI [C001]</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>MINOR: DSAI [C004]</t>
+          <t>MINOR: DSAI [C001]</t>
         </is>
       </c>
     </row>
@@ -817,7 +817,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>CS303 [C203]</t>
+          <t>CS303 [C202]</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -979,22 +979,22 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>MINOR: DSAI [C004]</t>
+          <t>MINOR: DSAI [C001]</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>MINOR: Generative Ai [C004]</t>
+          <t>MINOR: Generative Ai [C001]</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>MINOR: Cybersecurity [C004]</t>
+          <t>MINOR: Cybersecurity [C001]</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>MINOR: Design [C004]</t>
+          <t>MINOR: Design [C001]</t>
         </is>
       </c>
     </row>
@@ -2692,16 +2692,16 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="H2" t="inlineStr"/>
     </row>
@@ -2790,16 +2790,16 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="E5" t="n">
-        <v>5.4</v>
+        <v>3</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>67.5</v>
+        <v>37.5</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
@@ -2824,16 +2824,16 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>4.5</v>
+        <v>3</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9</v>
+        <v>0.6</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>11.25</v>
+        <v>7.5</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
@@ -3096,16 +3096,16 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>4.5</v>
+        <v>6</v>
       </c>
       <c r="E14" t="n">
-        <v>0.9</v>
+        <v>1.2</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>11.25</v>
+        <v>15</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
@@ -3130,16 +3130,16 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="E15" t="n">
-        <v>0.6</v>
+        <v>0.3</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>7.5</v>
+        <v>3.75</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
@@ -3334,16 +3334,16 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="E21" t="n">
-        <v>0.6</v>
+        <v>0.3</v>
       </c>
       <c r="F21" t="n">
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>7.5</v>
+        <v>3.75</v>
       </c>
       <c r="H21" t="inlineStr">
         <is>
@@ -3402,16 +3402,16 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>3.75</v>
       </c>
       <c r="H23" t="inlineStr">
         <is>
@@ -4175,7 +4175,7 @@
       <c r="L4" t="inlineStr"/>
       <c r="M4" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C302</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
@@ -5015,17 +5015,17 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>240</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="J16" t="b">
@@ -5043,7 +5043,7 @@
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>L403</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="N16" t="inlineStr">
@@ -5091,19 +5091,15 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>80</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>TV</t>
-        </is>
-      </c>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr"/>
       <c r="J17" t="b">
         <v>0</v>
       </c>
@@ -5119,7 +5115,7 @@
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>L404</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
@@ -5167,17 +5163,17 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>120</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J18" t="b">
@@ -5195,7 +5191,7 @@
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>L405</t>
+          <t>C002</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
@@ -5248,12 +5244,12 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J19" t="b">
@@ -5271,7 +5267,7 @@
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>L406</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="N19" t="inlineStr">
@@ -5387,17 +5383,17 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>240</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="J21" t="b">
@@ -5415,7 +5411,7 @@
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>C304</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="N21" t="inlineStr">
@@ -5463,19 +5459,15 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="I22" t="inlineStr">
-        <is>
-          <t>TV</t>
-        </is>
-      </c>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr"/>
       <c r="J22" t="b">
         <v>0</v>
       </c>
@@ -5491,7 +5483,7 @@
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>C305</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="N22" t="inlineStr">
@@ -5544,7 +5536,7 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>120</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
@@ -5567,7 +5559,7 @@
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>C003</t>
+          <t>C002</t>
         </is>
       </c>
       <c r="N23" t="inlineStr">
@@ -5620,12 +5612,12 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J24" t="b">
@@ -5643,7 +5635,7 @@
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>L402</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="N24" t="inlineStr">
@@ -5691,17 +5683,17 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>240</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="J25" t="b">
@@ -5719,7 +5711,7 @@
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>C203</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="N25" t="inlineStr">
@@ -5767,17 +5759,17 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>120</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J26" t="b">
@@ -5795,7 +5787,7 @@
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>C204</t>
+          <t>C002</t>
         </is>
       </c>
       <c r="N26" t="inlineStr">
@@ -5853,7 +5845,7 @@
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J27" t="b">
@@ -5871,7 +5863,7 @@
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>C205</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="N27" t="inlineStr">
@@ -5924,12 +5916,12 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J28" t="b">
@@ -5947,7 +5939,7 @@
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>L406</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N28" t="inlineStr">
@@ -6076,7 +6068,7 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
@@ -6099,7 +6091,7 @@
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>L408</t>
+          <t>C303</t>
         </is>
       </c>
       <c r="N30" t="inlineStr">
@@ -6147,17 +6139,17 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>240</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="J31" t="b">
@@ -6175,7 +6167,7 @@
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>L403</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="N31" t="inlineStr">
@@ -6223,19 +6215,15 @@
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>80</t>
-        </is>
-      </c>
-      <c r="I32" t="inlineStr">
-        <is>
-          <t>TV</t>
-        </is>
-      </c>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr"/>
       <c r="J32" t="b">
         <v>0</v>
       </c>
@@ -6251,7 +6239,7 @@
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>L404</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="N32" t="inlineStr">
@@ -6299,17 +6287,17 @@
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>120</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J33" t="b">
@@ -6327,7 +6315,7 @@
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>L405</t>
+          <t>C002</t>
         </is>
       </c>
       <c r="N33" t="inlineStr">
@@ -6380,12 +6368,12 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J34" t="b">
@@ -6403,7 +6391,7 @@
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>L406</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="N34" t="inlineStr">
@@ -6451,17 +6439,17 @@
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>240</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="J35" t="b">
@@ -6479,7 +6467,7 @@
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>L405</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="N35" t="inlineStr">
@@ -6527,17 +6515,17 @@
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>120</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J36" t="b">
@@ -6555,7 +6543,7 @@
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>L406</t>
+          <t>C002</t>
         </is>
       </c>
       <c r="N36" t="inlineStr">
@@ -6608,12 +6596,12 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J37" t="b">
@@ -6631,7 +6619,7 @@
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>L407</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="N37" t="inlineStr">
@@ -6684,12 +6672,12 @@
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J38" t="b">
@@ -6707,7 +6695,7 @@
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>L408</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N38" t="inlineStr">
@@ -6783,7 +6771,7 @@
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>C104</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="N39" t="inlineStr">
@@ -6836,7 +6824,7 @@
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
@@ -6859,7 +6847,7 @@
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>L404</t>
+          <t>C303</t>
         </is>
       </c>
       <c r="N40" t="inlineStr">
@@ -6907,19 +6895,15 @@
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="I41" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr"/>
       <c r="J41" t="b">
         <v>0</v>
       </c>
@@ -6931,7 +6915,7 @@
       <c r="L41" t="inlineStr"/>
       <c r="M41" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="N41" t="inlineStr">
@@ -7061,7 +7045,7 @@
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J43" t="b">
@@ -7075,7 +7059,7 @@
       <c r="L43" t="inlineStr"/>
       <c r="M43" t="inlineStr">
         <is>
-          <t>C203</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="N43" t="inlineStr">
@@ -7339,19 +7323,15 @@
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="I47" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr"/>
       <c r="J47" t="b">
         <v>0</v>
       </c>
@@ -7363,7 +7343,7 @@
       <c r="L47" t="inlineStr"/>
       <c r="M47" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="N47" t="inlineStr">
@@ -7411,19 +7391,15 @@
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="I48" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr"/>
       <c r="J48" t="b">
         <v>0</v>
       </c>
@@ -7435,7 +7411,7 @@
       <c r="L48" t="inlineStr"/>
       <c r="M48" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="N48" t="inlineStr">
@@ -7555,19 +7531,15 @@
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="I50" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr"/>
       <c r="J50" t="b">
         <v>0</v>
       </c>
@@ -7579,7 +7551,7 @@
       <c r="L50" t="inlineStr"/>
       <c r="M50" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="N50" t="inlineStr">
@@ -7627,19 +7599,15 @@
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="I51" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr"/>
       <c r="J51" t="b">
         <v>0</v>
       </c>
@@ -7651,7 +7619,7 @@
       <c r="L51" t="inlineStr"/>
       <c r="M51" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="N51" t="inlineStr">
@@ -7699,19 +7667,15 @@
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="I52" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr"/>
       <c r="J52" t="b">
         <v>0</v>
       </c>
@@ -7723,7 +7687,7 @@
       <c r="L52" t="inlineStr"/>
       <c r="M52" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="N52" t="inlineStr">
@@ -7771,19 +7735,15 @@
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="I53" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr"/>
       <c r="J53" t="b">
         <v>0</v>
       </c>
@@ -7795,7 +7755,7 @@
       <c r="L53" t="inlineStr"/>
       <c r="M53" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="N53" t="inlineStr">
@@ -7843,19 +7803,15 @@
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="I54" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="I54" t="inlineStr"/>
       <c r="J54" t="b">
         <v>0</v>
       </c>
@@ -7867,7 +7823,7 @@
       <c r="L54" t="inlineStr"/>
       <c r="M54" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="N54" t="inlineStr">
@@ -7915,17 +7871,17 @@
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J55" t="b">
@@ -7943,7 +7899,7 @@
       </c>
       <c r="M55" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N55" t="inlineStr">
@@ -7991,15 +7947,19 @@
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="I56" t="inlineStr"/>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
       <c r="J56" t="b">
         <v>0</v>
       </c>
@@ -8015,7 +7975,7 @@
       </c>
       <c r="M56" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="N56" t="inlineStr">
@@ -8063,12 +8023,12 @@
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
@@ -8091,7 +8051,7 @@
       </c>
       <c r="M57" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="N57" t="inlineStr">
@@ -8149,7 +8109,7 @@
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J58" t="b">
@@ -8167,7 +8127,7 @@
       </c>
       <c r="M58" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="N58" t="inlineStr">
@@ -8283,17 +8243,17 @@
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J60" t="b">
@@ -8311,7 +8271,7 @@
       </c>
       <c r="M60" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N60" t="inlineStr">
@@ -8359,15 +8319,19 @@
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="I61" t="inlineStr"/>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
       <c r="J61" t="b">
         <v>0</v>
       </c>
@@ -8383,7 +8347,7 @@
       </c>
       <c r="M61" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="N61" t="inlineStr">
@@ -8431,12 +8395,12 @@
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
@@ -8459,7 +8423,7 @@
       </c>
       <c r="M62" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="N62" t="inlineStr">
@@ -8517,7 +8481,7 @@
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J63" t="b">
@@ -8535,7 +8499,7 @@
       </c>
       <c r="M63" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="N63" t="inlineStr">
@@ -8583,19 +8547,15 @@
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="I64" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="I64" t="inlineStr"/>
       <c r="J64" t="b">
         <v>0</v>
       </c>
@@ -8611,7 +8571,7 @@
       </c>
       <c r="M64" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="N64" t="inlineStr">
@@ -8659,15 +8619,19 @@
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="I65" t="inlineStr"/>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
       <c r="J65" t="b">
         <v>0</v>
       </c>
@@ -8683,7 +8647,7 @@
       </c>
       <c r="M65" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="N65" t="inlineStr">
@@ -8731,17 +8695,17 @@
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J66" t="b">
@@ -8759,7 +8723,7 @@
       </c>
       <c r="M66" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="N66" t="inlineStr">
@@ -8817,7 +8781,7 @@
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J67" t="b">
@@ -8835,7 +8799,7 @@
       </c>
       <c r="M67" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C204</t>
         </is>
       </c>
       <c r="N67" t="inlineStr">
@@ -8893,7 +8857,7 @@
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J68" t="b">
@@ -8911,7 +8875,7 @@
       </c>
       <c r="M68" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C205</t>
         </is>
       </c>
       <c r="N68" t="inlineStr">
@@ -8987,7 +8951,7 @@
       </c>
       <c r="M69" t="inlineStr">
         <is>
-          <t>C104</t>
+          <t>C302</t>
         </is>
       </c>
       <c r="N69" t="inlineStr">
@@ -9035,17 +8999,17 @@
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J70" t="b">
@@ -9063,7 +9027,7 @@
       </c>
       <c r="M70" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N70" t="inlineStr">
@@ -9111,15 +9075,19 @@
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="I71" t="inlineStr"/>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I71" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
       <c r="J71" t="b">
         <v>0</v>
       </c>
@@ -9135,7 +9103,7 @@
       </c>
       <c r="M71" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="N71" t="inlineStr">
@@ -9183,12 +9151,12 @@
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
@@ -9211,7 +9179,7 @@
       </c>
       <c r="M72" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="N72" t="inlineStr">
@@ -9269,7 +9237,7 @@
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J73" t="b">
@@ -9287,7 +9255,7 @@
       </c>
       <c r="M73" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="N73" t="inlineStr">
@@ -9335,19 +9303,15 @@
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="I74" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="I74" t="inlineStr"/>
       <c r="J74" t="b">
         <v>0</v>
       </c>
@@ -9363,7 +9327,7 @@
       </c>
       <c r="M74" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="N74" t="inlineStr">
@@ -9411,15 +9375,19 @@
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="I75" t="inlineStr"/>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I75" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
       <c r="J75" t="b">
         <v>0</v>
       </c>
@@ -9435,7 +9403,7 @@
       </c>
       <c r="M75" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="N75" t="inlineStr">
@@ -9483,17 +9451,17 @@
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J76" t="b">
@@ -9511,7 +9479,7 @@
       </c>
       <c r="M76" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="N76" t="inlineStr">
@@ -9569,7 +9537,7 @@
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J77" t="b">
@@ -9587,7 +9555,7 @@
       </c>
       <c r="M77" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C204</t>
         </is>
       </c>
       <c r="N77" t="inlineStr">
@@ -9645,7 +9613,7 @@
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J78" t="b">
@@ -9663,7 +9631,7 @@
       </c>
       <c r="M78" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C205</t>
         </is>
       </c>
       <c r="N78" t="inlineStr">
@@ -9739,7 +9707,7 @@
       </c>
       <c r="M79" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>C302</t>
         </is>
       </c>
       <c r="N79" t="inlineStr">
@@ -9805,7 +9773,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>C004, C304, L403</t>
+          <t>C004, C102</t>
         </is>
       </c>
     </row>
@@ -9822,7 +9790,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>C001, C305, L404</t>
+          <t>C001, C104</t>
         </is>
       </c>
     </row>
@@ -9839,7 +9807,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>C002, C003, L405</t>
+          <t>C002, C202</t>
         </is>
       </c>
     </row>
@@ -9856,7 +9824,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>C101, L402, L406</t>
+          <t>C101, C203</t>
         </is>
       </c>
     </row>
@@ -9873,7 +9841,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>C004, C203, L405</t>
+          <t>C001, C004</t>
         </is>
       </c>
     </row>
@@ -9890,7 +9858,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>C001, C204, L406</t>
+          <t>C002, C104</t>
         </is>
       </c>
     </row>
@@ -9907,7 +9875,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>C002, C205, L407</t>
+          <t>C101, C203</t>
         </is>
       </c>
     </row>
@@ -9924,7 +9892,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>C101, L406, L408</t>
+          <t>C102, C204</t>
         </is>
       </c>
     </row>
@@ -9941,7 +9909,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>C102, C104, C202</t>
+          <t>C202, C205</t>
         </is>
       </c>
     </row>
@@ -9958,7 +9926,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>C104, C202, L404, L408</t>
+          <t>C302, C303</t>
         </is>
       </c>
     </row>
@@ -9975,7 +9943,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>C004, C304, L403</t>
+          <t>C004, C102</t>
         </is>
       </c>
     </row>
@@ -9992,7 +9960,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>C001, C305, L404</t>
+          <t>C001, C104</t>
         </is>
       </c>
     </row>
@@ -10009,7 +9977,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>C002, C003, L405</t>
+          <t>C002, C202</t>
         </is>
       </c>
     </row>
@@ -10039,7 +10007,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>C101, L402, L406</t>
+          <t>C101, C203</t>
         </is>
       </c>
     </row>
@@ -10056,7 +10024,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>C004, C203, L405</t>
+          <t>C001, C004</t>
         </is>
       </c>
     </row>
@@ -10073,7 +10041,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>C001, C204, L406</t>
+          <t>C002, C104</t>
         </is>
       </c>
     </row>
@@ -10090,7 +10058,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>C101, L406, L408</t>
+          <t>C102, C204</t>
         </is>
       </c>
     </row>

--- a/backend/output_timetables/sem5_CSE_timetable_baskets.xlsx
+++ b/backend/output_timetables/sem5_CSE_timetable_baskets.xlsx
@@ -474,22 +474,22 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>MINOR: Cybersecurity [C004]</t>
+          <t>MINOR: Cybersecurity [C102]</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>MINOR: Design [C004]</t>
+          <t>MINOR: Design [C102]</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>MINOR: VLSI [C004]</t>
+          <t>MINOR: VLSI [C102]</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>MINOR: DSAI [C004]</t>
+          <t>MINOR: DSAI [C102]</t>
         </is>
       </c>
     </row>
@@ -501,12 +501,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>CS309 [C004]</t>
+          <t>CS309 [C202]</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>CS304 [C004]</t>
+          <t>CS304 [C202]</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -528,7 +528,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>CS303 [C302]</t>
+          <t>CS303 [C202]</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -636,7 +636,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>CS303 (Lab) [L207]</t>
+          <t>CS303 (Lab) [L106]</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -663,7 +663,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>CS303 (Lab) [L207]</t>
+          <t>CS303 (Lab) [L106]</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -690,22 +690,22 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>MINOR: DSAI [C004]</t>
+          <t>MINOR: DSAI [C102]</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>MINOR: Generative Ai [C004]</t>
+          <t>MINOR: Generative Ai [C102]</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>MINOR: Cybersecurity [C004]</t>
+          <t>MINOR: Cybersecurity [C102]</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>MINOR: Design [C004]</t>
+          <t>MINOR: Design [C102]</t>
         </is>
       </c>
     </row>
@@ -763,22 +763,22 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>MINOR: Cybersecurity [C001]</t>
+          <t>MINOR: Cybersecurity [C102]</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>MINOR: Design [C001]</t>
+          <t>MINOR: Design [C102]</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>MINOR: VLSI [C001]</t>
+          <t>MINOR: VLSI [C102]</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>MINOR: DSAI [C001]</t>
+          <t>MINOR: DSAI [C102]</t>
         </is>
       </c>
     </row>
@@ -790,12 +790,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>CS309 [C101]</t>
+          <t>CS309 [C203]</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>CS304 [C101]</t>
+          <t>CS304 [C203]</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -817,7 +817,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>CS303 [C202]</t>
+          <t>CS303 [C203]</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -979,22 +979,22 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>MINOR: DSAI [C001]</t>
+          <t>MINOR: DSAI [C102]</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>MINOR: Generative Ai [C001]</t>
+          <t>MINOR: Generative Ai [C102]</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>MINOR: Cybersecurity [C001]</t>
+          <t>MINOR: Cybersecurity [C102]</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>MINOR: Design [C001]</t>
+          <t>MINOR: Design [C102]</t>
         </is>
       </c>
     </row>
@@ -2692,16 +2692,16 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>2.4</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="H2" t="inlineStr"/>
     </row>
@@ -2790,16 +2790,16 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>37.5</v>
+        <v>0</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
@@ -2824,16 +2824,16 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>7.5</v>
+        <v>0</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
@@ -2858,16 +2858,16 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>4.8</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
@@ -2994,16 +2994,16 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="H11" t="inlineStr">
         <is>
@@ -3096,16 +3096,16 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E14" t="n">
-        <v>1.2</v>
+        <v>1.8</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>15</v>
+        <v>22.5</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
@@ -3130,16 +3130,16 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>1.5</v>
+        <v>6</v>
       </c>
       <c r="E15" t="n">
-        <v>0.3</v>
+        <v>1.2</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>3.75</v>
+        <v>15</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
@@ -3266,16 +3266,16 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>7.5</v>
+        <v>0</v>
       </c>
       <c r="H19" t="inlineStr">
         <is>
@@ -3334,16 +3334,16 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>1.5</v>
+        <v>6</v>
       </c>
       <c r="E21" t="n">
-        <v>0.3</v>
+        <v>1.2</v>
       </c>
       <c r="F21" t="n">
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>3.75</v>
+        <v>15</v>
       </c>
       <c r="H21" t="inlineStr">
         <is>
@@ -3402,16 +3402,16 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.75</v>
+        <v>0</v>
       </c>
       <c r="H23" t="inlineStr">
         <is>
@@ -4007,17 +4007,17 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J2" t="b">
@@ -4031,7 +4031,7 @@
       <c r="L2" t="inlineStr"/>
       <c r="M2" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
@@ -4079,17 +4079,17 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J3" t="b">
@@ -4103,7 +4103,7 @@
       <c r="L3" t="inlineStr"/>
       <c r="M3" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
@@ -4175,7 +4175,7 @@
       <c r="L4" t="inlineStr"/>
       <c r="M4" t="inlineStr">
         <is>
-          <t>C302</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
@@ -4319,7 +4319,7 @@
       <c r="L6" t="inlineStr"/>
       <c r="M6" t="inlineStr">
         <is>
-          <t>L207</t>
+          <t>L106</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
@@ -4391,7 +4391,7 @@
       <c r="L7" t="inlineStr"/>
       <c r="M7" t="inlineStr">
         <is>
-          <t>L207</t>
+          <t>L106</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
@@ -4439,17 +4439,17 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J8" t="b">
@@ -4463,7 +4463,7 @@
       <c r="L8" t="inlineStr"/>
       <c r="M8" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
@@ -4511,17 +4511,17 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J9" t="b">
@@ -4535,7 +4535,7 @@
       <c r="L9" t="inlineStr"/>
       <c r="M9" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
@@ -4583,17 +4583,17 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J10" t="b">
@@ -4607,7 +4607,7 @@
       <c r="L10" t="inlineStr"/>
       <c r="M10" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
@@ -4655,17 +4655,17 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J11" t="b">
@@ -4679,7 +4679,7 @@
       <c r="L11" t="inlineStr"/>
       <c r="M11" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
@@ -4727,17 +4727,17 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J12" t="b">
@@ -4751,7 +4751,7 @@
       <c r="L12" t="inlineStr"/>
       <c r="M12" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
@@ -4799,17 +4799,17 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J13" t="b">
@@ -4823,7 +4823,7 @@
       <c r="L13" t="inlineStr"/>
       <c r="M13" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
@@ -4871,17 +4871,17 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J14" t="b">
@@ -4895,7 +4895,7 @@
       <c r="L14" t="inlineStr"/>
       <c r="M14" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
@@ -4943,17 +4943,17 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J15" t="b">
@@ -4967,7 +4967,7 @@
       <c r="L15" t="inlineStr"/>
       <c r="M15" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N15" t="inlineStr">
@@ -5015,17 +5015,17 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J16" t="b">
@@ -5043,7 +5043,7 @@
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="N16" t="inlineStr">
@@ -5091,15 +5091,19 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr"/>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
       <c r="J17" t="b">
         <v>0</v>
       </c>
@@ -5115,7 +5119,7 @@
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
@@ -5163,12 +5167,12 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
@@ -5191,7 +5195,7 @@
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
@@ -5267,7 +5271,7 @@
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="N19" t="inlineStr">
@@ -5339,7 +5343,7 @@
       <c r="L20" t="inlineStr"/>
       <c r="M20" t="inlineStr">
         <is>
-          <t>L207</t>
+          <t>L106</t>
         </is>
       </c>
       <c r="N20" t="inlineStr">
@@ -5383,17 +5387,17 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J21" t="b">
@@ -5411,7 +5415,7 @@
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="N21" t="inlineStr">
@@ -5459,15 +5463,19 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="I22" t="inlineStr"/>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
       <c r="J22" t="b">
         <v>0</v>
       </c>
@@ -5483,7 +5491,7 @@
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N22" t="inlineStr">
@@ -5531,12 +5539,12 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
@@ -5559,7 +5567,7 @@
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="N23" t="inlineStr">
@@ -5635,7 +5643,7 @@
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="N24" t="inlineStr">
@@ -5683,17 +5691,17 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J25" t="b">
@@ -5711,7 +5719,7 @@
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="N25" t="inlineStr">
@@ -5759,12 +5767,12 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
@@ -5787,7 +5795,7 @@
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N26" t="inlineStr">
@@ -5863,7 +5871,7 @@
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="N27" t="inlineStr">
@@ -5939,7 +5947,7 @@
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="N28" t="inlineStr">
@@ -5997,7 +6005,7 @@
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J29" t="b">
@@ -6015,7 +6023,7 @@
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>C204</t>
         </is>
       </c>
       <c r="N29" t="inlineStr">
@@ -6091,7 +6099,7 @@
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>C303</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="N30" t="inlineStr">
@@ -6139,17 +6147,17 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J31" t="b">
@@ -6167,7 +6175,7 @@
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="N31" t="inlineStr">
@@ -6215,15 +6223,19 @@
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="I32" t="inlineStr"/>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
       <c r="J32" t="b">
         <v>0</v>
       </c>
@@ -6239,7 +6251,7 @@
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N32" t="inlineStr">
@@ -6287,12 +6299,12 @@
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
@@ -6315,7 +6327,7 @@
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="N33" t="inlineStr">
@@ -6391,7 +6403,7 @@
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="N34" t="inlineStr">
@@ -6439,17 +6451,17 @@
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J35" t="b">
@@ -6467,7 +6479,7 @@
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="N35" t="inlineStr">
@@ -6515,12 +6527,12 @@
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
@@ -6543,7 +6555,7 @@
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N36" t="inlineStr">
@@ -6619,7 +6631,7 @@
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="N37" t="inlineStr">
@@ -6695,7 +6707,7 @@
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="N38" t="inlineStr">
@@ -6753,7 +6765,7 @@
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J39" t="b">
@@ -6771,7 +6783,7 @@
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>C204</t>
         </is>
       </c>
       <c r="N39" t="inlineStr">
@@ -6847,7 +6859,7 @@
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>C303</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="N40" t="inlineStr">
@@ -6895,15 +6907,19 @@
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="I41" t="inlineStr"/>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
       <c r="J41" t="b">
         <v>0</v>
       </c>
@@ -6915,7 +6931,7 @@
       <c r="L41" t="inlineStr"/>
       <c r="M41" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N41" t="inlineStr">
@@ -6973,7 +6989,7 @@
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J42" t="b">
@@ -6987,7 +7003,7 @@
       <c r="L42" t="inlineStr"/>
       <c r="M42" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="N42" t="inlineStr">
@@ -7045,7 +7061,7 @@
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J43" t="b">
@@ -7059,7 +7075,7 @@
       <c r="L43" t="inlineStr"/>
       <c r="M43" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="N43" t="inlineStr">
@@ -7323,15 +7339,19 @@
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="I47" t="inlineStr"/>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
       <c r="J47" t="b">
         <v>0</v>
       </c>
@@ -7343,7 +7363,7 @@
       <c r="L47" t="inlineStr"/>
       <c r="M47" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N47" t="inlineStr">
@@ -7391,15 +7411,19 @@
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="I48" t="inlineStr"/>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
       <c r="J48" t="b">
         <v>0</v>
       </c>
@@ -7411,7 +7435,7 @@
       <c r="L48" t="inlineStr"/>
       <c r="M48" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N48" t="inlineStr">
@@ -7469,7 +7493,7 @@
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J49" t="b">
@@ -7483,7 +7507,7 @@
       <c r="L49" t="inlineStr"/>
       <c r="M49" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="N49" t="inlineStr">
@@ -7531,15 +7555,19 @@
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="I50" t="inlineStr"/>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
       <c r="J50" t="b">
         <v>0</v>
       </c>
@@ -7551,7 +7579,7 @@
       <c r="L50" t="inlineStr"/>
       <c r="M50" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N50" t="inlineStr">
@@ -7599,15 +7627,19 @@
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="I51" t="inlineStr"/>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
       <c r="J51" t="b">
         <v>0</v>
       </c>
@@ -7619,7 +7651,7 @@
       <c r="L51" t="inlineStr"/>
       <c r="M51" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N51" t="inlineStr">
@@ -7667,15 +7699,19 @@
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="I52" t="inlineStr"/>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
       <c r="J52" t="b">
         <v>0</v>
       </c>
@@ -7687,7 +7723,7 @@
       <c r="L52" t="inlineStr"/>
       <c r="M52" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N52" t="inlineStr">
@@ -7735,15 +7771,19 @@
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="I53" t="inlineStr"/>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
       <c r="J53" t="b">
         <v>0</v>
       </c>
@@ -7755,7 +7795,7 @@
       <c r="L53" t="inlineStr"/>
       <c r="M53" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N53" t="inlineStr">
@@ -7803,15 +7843,19 @@
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="I54" t="inlineStr"/>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
       <c r="J54" t="b">
         <v>0</v>
       </c>
@@ -7823,7 +7867,7 @@
       <c r="L54" t="inlineStr"/>
       <c r="M54" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N54" t="inlineStr">
@@ -7899,7 +7943,7 @@
       </c>
       <c r="M55" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="N55" t="inlineStr">
@@ -7975,7 +8019,7 @@
       </c>
       <c r="M56" t="inlineStr">
         <is>
-          <t>C104</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N56" t="inlineStr">
@@ -8051,7 +8095,7 @@
       </c>
       <c r="M57" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="N57" t="inlineStr">
@@ -8109,7 +8153,7 @@
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J58" t="b">
@@ -8127,7 +8171,7 @@
       </c>
       <c r="M58" t="inlineStr">
         <is>
-          <t>C203</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="N58" t="inlineStr">
@@ -8271,7 +8315,7 @@
       </c>
       <c r="M60" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="N60" t="inlineStr">
@@ -8347,7 +8391,7 @@
       </c>
       <c r="M61" t="inlineStr">
         <is>
-          <t>C104</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N61" t="inlineStr">
@@ -8423,7 +8467,7 @@
       </c>
       <c r="M62" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="N62" t="inlineStr">
@@ -8481,7 +8525,7 @@
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J63" t="b">
@@ -8499,7 +8543,7 @@
       </c>
       <c r="M63" t="inlineStr">
         <is>
-          <t>C203</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="N63" t="inlineStr">
@@ -8547,15 +8591,19 @@
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="I64" t="inlineStr"/>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
       <c r="J64" t="b">
         <v>0</v>
       </c>
@@ -8571,7 +8619,7 @@
       </c>
       <c r="M64" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="N64" t="inlineStr">
@@ -8647,7 +8695,7 @@
       </c>
       <c r="M65" t="inlineStr">
         <is>
-          <t>C104</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N65" t="inlineStr">
@@ -8705,7 +8753,7 @@
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J66" t="b">
@@ -8723,7 +8771,7 @@
       </c>
       <c r="M66" t="inlineStr">
         <is>
-          <t>C203</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="N66" t="inlineStr">
@@ -8781,7 +8829,7 @@
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J67" t="b">
@@ -8799,7 +8847,7 @@
       </c>
       <c r="M67" t="inlineStr">
         <is>
-          <t>C204</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="N67" t="inlineStr">
@@ -8875,7 +8923,7 @@
       </c>
       <c r="M68" t="inlineStr">
         <is>
-          <t>C205</t>
+          <t>C204</t>
         </is>
       </c>
       <c r="N68" t="inlineStr">
@@ -8933,7 +8981,7 @@
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J69" t="b">
@@ -8951,7 +8999,7 @@
       </c>
       <c r="M69" t="inlineStr">
         <is>
-          <t>C302</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="N69" t="inlineStr">
@@ -9027,7 +9075,7 @@
       </c>
       <c r="M70" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="N70" t="inlineStr">
@@ -9103,7 +9151,7 @@
       </c>
       <c r="M71" t="inlineStr">
         <is>
-          <t>C104</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N71" t="inlineStr">
@@ -9179,7 +9227,7 @@
       </c>
       <c r="M72" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="N72" t="inlineStr">
@@ -9237,7 +9285,7 @@
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J73" t="b">
@@ -9255,7 +9303,7 @@
       </c>
       <c r="M73" t="inlineStr">
         <is>
-          <t>C203</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="N73" t="inlineStr">
@@ -9303,15 +9351,19 @@
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="I74" t="inlineStr"/>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I74" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
       <c r="J74" t="b">
         <v>0</v>
       </c>
@@ -9327,7 +9379,7 @@
       </c>
       <c r="M74" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="N74" t="inlineStr">
@@ -9403,7 +9455,7 @@
       </c>
       <c r="M75" t="inlineStr">
         <is>
-          <t>C104</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N75" t="inlineStr">
@@ -9461,7 +9513,7 @@
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J76" t="b">
@@ -9479,7 +9531,7 @@
       </c>
       <c r="M76" t="inlineStr">
         <is>
-          <t>C203</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="N76" t="inlineStr">
@@ -9537,7 +9589,7 @@
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J77" t="b">
@@ -9555,7 +9607,7 @@
       </c>
       <c r="M77" t="inlineStr">
         <is>
-          <t>C204</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="N77" t="inlineStr">
@@ -9631,7 +9683,7 @@
       </c>
       <c r="M78" t="inlineStr">
         <is>
-          <t>C205</t>
+          <t>C204</t>
         </is>
       </c>
       <c r="N78" t="inlineStr">
@@ -9689,7 +9741,7 @@
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J79" t="b">
@@ -9707,7 +9759,7 @@
       </c>
       <c r="M79" t="inlineStr">
         <is>
-          <t>C302</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="N79" t="inlineStr">
@@ -9773,7 +9825,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>C004, C102</t>
+          <t>C101</t>
         </is>
       </c>
     </row>
@@ -9790,7 +9842,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>C001, C104</t>
+          <t>C102</t>
         </is>
       </c>
     </row>
@@ -9807,7 +9859,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>C002, C202</t>
+          <t>C104</t>
         </is>
       </c>
     </row>
@@ -9824,7 +9876,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>C101, C203</t>
+          <t>C202</t>
         </is>
       </c>
     </row>
@@ -9841,7 +9893,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>C001, C004</t>
+          <t>C101</t>
         </is>
       </c>
     </row>
@@ -9858,7 +9910,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>C002, C104</t>
+          <t>C102</t>
         </is>
       </c>
     </row>
@@ -9875,7 +9927,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>C101, C203</t>
+          <t>C104</t>
         </is>
       </c>
     </row>
@@ -9892,7 +9944,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>C102, C204</t>
+          <t>C202</t>
         </is>
       </c>
     </row>
@@ -9909,7 +9961,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>C202, C205</t>
+          <t>C204</t>
         </is>
       </c>
     </row>
@@ -9926,7 +9978,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>C302, C303</t>
+          <t>C203</t>
         </is>
       </c>
     </row>
@@ -9943,7 +9995,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>C004, C102</t>
+          <t>C101</t>
         </is>
       </c>
     </row>
@@ -9960,7 +10012,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>C001, C104</t>
+          <t>C102</t>
         </is>
       </c>
     </row>
@@ -9977,7 +10029,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>C002, C202</t>
+          <t>C104</t>
         </is>
       </c>
     </row>
@@ -10007,7 +10059,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>C101, C203</t>
+          <t>C202</t>
         </is>
       </c>
     </row>
@@ -10024,7 +10076,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>C001, C004</t>
+          <t>C101</t>
         </is>
       </c>
     </row>
@@ -10041,7 +10093,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>C002, C104</t>
+          <t>C102</t>
         </is>
       </c>
     </row>
@@ -10058,7 +10110,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>C102, C204</t>
+          <t>C202</t>
         </is>
       </c>
     </row>
